--- a/public/preprocessing/@sahaL_AS.xlsx
+++ b/public/preprocessing/@sahaL_AS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17744</v>
+        <v>28512</v>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt oalah ternyata ada orang ini yg provokasi kasus nakes di pematang siantar pak polri apa gak mau klarifikasi semb</t>
+          <t>rt buletin hti ini ude lama ada sejak sekitar th lalu dan disebarkan setiap sholat jumat di masjid besar di jabodetabek ter</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'oalah', 'ternyata', 'ada', 'orang', 'ini', 'yg', 'provokasi', 'kasus', 'nakes', 'di', 'pematang', 'siantar', 'pak', 'polri', 'apa', 'gak', 'mau', 'klarifikasi', 'semb']</t>
+          <t>['rt', 'buletin', 'hti', 'ini', 'ude', 'lama', 'ada', 'sejak', 'sekitar', 'th', 'lalu', 'dan', 'disebarkan', 'setiap', 'sholat', 'jumat', 'di', 'masjid', 'besar', 'di', 'jabodetabek', 'ter']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'buletin', 'hati', 'ini', 'ude', 'lama', 'ada', 'sejak', 'sekitar', 'tahun', 'lalu', 'dan', 'disebarkan', 'setiap', 'salat', 'jumat', 'di', 'masjid', 'besar', 'di', 'jabodetabek', 'ter']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['oalah', 'orang', 'provokasi', 'nakes', 'pematang', 'siantar', 'polri', 'klarifikasi', 'semb']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['oalah', 'orang', 'provokasi', 'nakes', 'pematang', 'siantar', 'polri', 'klarifikasi', 'semb']</t>
+          <t>['buletin', 'hati', 'ude', 'disebarkan', 'salat', 'jumat', 'masjid', 'jabodetabek', 'ter']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['buletin', 'hati', 'ude', 'sebar', 'salat', 'jumat', 'masjid', 'jabodetabek', 'ter']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17745</v>
+        <v>28513</v>
       </c>
       <c r="C3" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt jaksa itu yg harusnya kontrol kasus bukan polisi berani menghentikan kasus yg gak jelas begini adalah mahkota jaksa gak ap</t>
+          <t>rt enak ya nyebar isyu kemudian ditutup dengan ini dugaan saya kalau keliru saya minta maaf</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'jaksa', 'itu', 'yg', 'harusnya', 'kontrol', 'kasus', 'bukan', 'polisi', 'berani', 'menghentikan', 'kasus', 'yg', 'gak', 'jelas', 'begini', 'adalah', 'mahkota', 'jaksa', 'gak', 'ap']</t>
+          <t>['rt', 'enak', 'ya', 'nyebar', 'isyu', 'kemudian', 'ditutup', 'dengan', 'ini', 'dugaan', 'saya', 'kalau', 'keliru', 'saya', 'minta', 'maaf']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'enak', 'ya', 'menyebar', 'isu', 'kemudian', 'ditutup', 'dengan', 'ini', 'dugaan', 'saya', 'kalau', 'keliru', 'saya', 'meminta', 'maaf']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['jaksa', 'kontrol', 'polisi', 'berani', 'menghentikan', 'mahkota', 'jaksa', 'ap']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['jaksa', 'kontrol', 'polisi', 'berani', 'henti', 'mahkota', 'jaksa', 'ap']</t>
+          <t>['enak', 'menyebar', 'isu', 'ditutup', 'dugaan', 'keliru', 'maaf']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['enak', 'sebar', 'isu', 'tutup', 'duga', 'keliru', 'maaf']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17746</v>
+        <v>28514</v>
       </c>
       <c r="C4" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>adi bukan ditangkap tp jadi tersangka krn demikianlah proses hukumnya masih bebas semoga aja ga jadi terdakwa</t>
+          <t>rt sheikh mohammed bin rashid penguasa dubai amp wakil presiden emirat arab adalah pemelihara anjing dan anakanaknya sa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['adi', 'bukan', 'ditangkap', 'tp', 'jadi', 'tersangka', 'krn', 'demikianlah', 'proses', 'hukumnya', 'masih', 'bebas', 'semoga', 'aja', 'ga', 'jadi', 'terdakwa']</t>
+          <t>['rt', 'sheikh', 'mohammed', 'bin', 'rashid', 'penguasa', 'dubai', 'amp', 'wakil', 'presiden', 'emirat', 'arab', 'adalah', 'pemelihara', 'anjing', 'dan', 'anakanaknya', 'sa']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'syekh', 'mohammed', 'bin', 'rashid', 'penguasa', 'dubai', 'amp', 'wakil', 'presiden', 'emirat', 'arab', 'adalah', 'pemelihara', 'anjing', 'dan', 'anakanaknya', 'sa']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['adi', 'ditangkap', 'tp', 'tersangka', 'proses', 'hukumnya', 'bebas', 'semoga', 'terdakwa']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['adi', 'tangkap', 'tp', 'sangka', 'proses', 'hukum', 'bebas', 'moga', 'dakwa']</t>
+          <t>['syekh', 'mohammed', 'bin', 'rashid', 'penguasa', 'dubai', 'wakil', 'presiden', 'emirat', 'arab', 'pemelihara', 'anjing', 'anakanaknya', 'sa']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['syekh', 'mohammed', 'bin', 'rashid', 'kuasa', 'dubai', 'wakil', 'presiden', 'emirat', 'arab', 'pelihara', 'anjing', 'anakanaknya', 'sa']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17747</v>
+        <v>28515</v>
       </c>
       <c r="C5" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt betul bunghrs tegas jgn sampai kebhinekaan kita terkoyak</t>
+          <t>rt penghargaan pd kami bukan dgn memberi jabatan tp dgn tidak korupsi melakukan kejahatan kemanusiaan atau menebar hasut</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'betul', 'bunghrs', 'tegas', 'jgn', 'sampai', 'kebhinekaan', 'kita', 'terkoyak']</t>
+          <t>['rt', 'penghargaan', 'pd', 'kami', 'bukan', 'dgn', 'memberi', 'jabatan', 'tp', 'dgn', 'tidak', 'korupsi', 'melakukan', 'kejahatan', 'kemanusiaan', 'atau', 'menebar', 'hasut']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'penghargaan', 'pada', 'kami', 'bukan', 'dengan', 'memberi', 'jabatan', 'tetapi', 'dengan', 'tidak', 'korupsi', 'melakukan', 'kejahatan', 'kemanusiaan', 'atau', 'menebar', 'hasut']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['bunghrs', 'kebhinekaan', 'terkoyak']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['bunghrs', 'kebhinekaan', 'koyak']</t>
+          <t>['penghargaan', 'jabatan', 'korupsi', 'kejahatan', 'kemanusiaan', 'menebar', 'hasut']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['harga', 'jabat', 'korupsi', 'jahat', 'manusia', 'tebar', 'hasut']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17748</v>
+        <v>28516</v>
       </c>
       <c r="C6" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>komenmu yg lucu hg melarang fpi kan pemerintah itu bukti pemerintah ga takut fpigini loh cara memah</t>
+          <t>rt billie eilish wins grammy for no time to die first song ever to win from an unreleasedmovie</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['komenmu', 'yg', 'lucu', 'hg', 'melarang', 'fpi', 'kan', 'pemerintah', 'itu', 'bukti', 'pemerintah', 'ga', 'takut', 'fpigini', 'loh', 'cara', 'memah']</t>
+          <t>['rt', 'billie', 'eilish', 'wins', 'grammy', 'for', 'no', 'time', 'to', 'die', 'first', 'song', 'ever', 'to', 'win', 'from', 'an', 'unreleasedmovie']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'billie', 'eilish', 'menang', 'grammy', 'for', 'no', 'time', 'to', 'dia', 'first', 'song', 'ever', 'to', 'menang', 'from', 'an', 'unreleasedmovie']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['komenmu', 'lucu', 'hg', 'melarang', 'fpi', 'pemerintah', 'bukti', 'pemerintah', 'takut', 'fpigini', 'memah']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['komenmu', 'lucu', 'hg', 'larang', 'fpi', 'perintah', 'bukti', 'perintah', 'takut', 'fpigini', 'mah']</t>
+          <t>['billie', 'eilish', 'menang', 'grammy', 'for', 'no', 'time', 'to', 'first', 'song', 'ever', 'to', 'menang', 'from', 'an', 'unreleasedmovie']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['billie', 'eilish', 'menang', 'grammy', 'for', 'no', 'time', 'to', 'first', 'song', 'ever', 'to', 'menang', 'from', 'an', 'unreleasedmovie']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17749</v>
+        <v>28517</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>susi adi noted makasih koreksiannya kaktwit saya ini dari komen adi</t>
+          <t>rt mendukung langkah kpk untuk menuntaskan kasus korupsi program dp rupiah full video</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['susi', 'adi', 'noted', 'makasih', 'koreksiannya', 'kaktwit', 'saya', 'ini', 'dari', 'komen', 'adi']</t>
+          <t>['rt', 'mendukung', 'langkah', 'kpk', 'untuk', 'menuntaskan', 'kasus', 'korupsi', 'program', 'dp', 'rupiah', 'full', 'video']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'mendukung', 'langkah', 'komisi, pemberantasan, korupsi', 'untuk', 'menuntaskan', 'kasus', 'korupsi', 'program', 'uang, muka', 'rupiah', 'full', 'video']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['susi', 'adi', 'noted', 'makasih', 'koreksiannya', 'kaktwit', 'komen', 'adi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['sus', 'adi', 'noted', 'makasih', 'koreksi', 'kaktwit', 'komen', 'adi']</t>
+          <t>['mendukung', 'langkah', 'komisi, pemberantasan, korupsi', 'menuntaskan', 'korupsi', 'program', 'uang, muka', 'rupiah', 'full', 'video']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['dukung', 'langkah', 'komisi berantas korupsi', 'tuntas', 'korupsi', 'program', 'uang muka', 'rupiah', 'full', 'video']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17750</v>
+        <v>28518</v>
       </c>
       <c r="C8" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt adi nambahin tautan beritanya mas</t>
+          <t>rt sedih sekali mendengar kabar mbak hesti muslimah bercadar berhati mulia yang memelihara an anjing terlantar itu ditol</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'adi', 'nambahin', 'tautan', 'beritanya', 'mas']</t>
+          <t>['rt', 'sedih', 'sekali', 'mendengar', 'kabar', 'mbak', 'hesti', 'muslimah', 'bercadar', 'berhati', 'mulia', 'yang', 'memelihara', 'an', 'anjing', 'terlantar', 'itu', 'ditol']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'sedih', 'sekali', 'mendengar', 'kabar', 'mbak', 'hesti', 'muslimah', 'bercadar', 'berhati', 'mulia', 'yang', 'memelihara', 'an', 'anjing', 'terlantar', 'itu', 'ditol']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['adi', 'nambahin', 'tautan', 'beritanya', 'mas']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['adi', 'nambahin', 'taut', 'berita', 'mas']</t>
+          <t>['sedih', 'mendengar', 'kabar', 'mbak', 'hesti', 'muslimah', 'bercadar', 'berhati', 'mulia', 'memelihara', 'an', 'anjing', 'terlantar', 'ditol']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sedih', 'dengar', 'kabar', 'mbak', 'hesti', 'muslimah', 'cadar', 'hati', 'mulia', 'pelihara', 'an', 'anjing', 'lantar', 'tol']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17751</v>
+        <v>28519</v>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sejak fpi dilarang berkegiatan kayaknya pemerintah lebih tegas dalam isu kebhinekaan skb menteri soal jilbab</t>
+          <t>rt siap gak siap siap gak siap siap gak siap harus siap ayo kita siapkan tiap orang amp komunitas harus bersiap say</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['sejak', 'fpi', 'dilarang', 'berkegiatan', 'kayaknya', 'pemerintah', 'lebih', 'tegas', 'dalam', 'isu', 'kebhinekaan', 'skb', 'menteri', 'soal', 'jilbab']</t>
+          <t>['rt', 'siap', 'gak', 'siap', 'siap', 'gak', 'siap', 'siap', 'gak', 'siap', 'harus', 'siap', 'ayo', 'kita', 'siapkan', 'tiap', 'orang', 'amp', 'komunitas', 'harus', 'bersiap', 'say']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'siap', 'tidak', 'siap', 'siap', 'tidak', 'siap', 'siap', 'tidak', 'siap', 'harus', 'siap', 'ayo', 'kita', 'siapkan', 'tiap', 'orang', 'amp', 'komunitas', 'harus', 'bersiap', 'sayang']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['fpi', 'dilarang', 'berkegiatan', 'kayaknya', 'pemerintah', 'isu', 'kebhinekaan', 'skb', 'menteri', 'jilbab']</t>
+          <t>&lt;FreqDist with 13 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['fpi', 'larang', 'giat', 'kayak', 'perintah', 'isu', 'kebhinekaan', 'skb', 'menteri', 'jilbab']</t>
+          <t>['ayo', 'siapkan', 'orang', 'komunitas', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['ayo', 'siap', 'orang', 'komunitas', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17752</v>
+        <v>28520</v>
       </c>
       <c r="C10" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt kalo esjewe gak bersuara masih bisa dimaklumi takut sama temennya bisa jadi tapi komnas ham dan polisi korona pada mingkem</t>
+          <t>rt jumat ini gabung yuk di philosophyunderground episode duel sokrates vs nietzsche brsama setyo wibowo amp yulius tandyanto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'kalo', 'esjewe', 'gak', 'bersuara', 'masih', 'bisa', 'dimaklumi', 'takut', 'sama', 'temennya', 'bisa', 'jadi', 'tapi', 'komnas', 'ham', 'dan', 'polisi', 'korona', 'pada', 'mingkem']</t>
+          <t>['rt', 'jumat', 'ini', 'gabung', 'yuk', 'di', 'philosophyunderground', 'episode', 'duel', 'sokrates', 'vs', 'nietzsche', 'brsama', 'setyo', 'wibowo', 'amp', 'yulius', 'tandyanto']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'jumat', 'ini', 'gabung', 'yuk', 'di', 'philosophyunderground', 'episode', 'duel', 'sokrates', 'lawan', 'nietzsche', 'bersama', 'setyo', 'wibowo', 'amp', 'yulius', 'tandyanto']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['esjewe', 'bersuara', 'dimaklumi', 'takut', 'temennya', 'komnas', 'ham', 'polisi', 'korona', 'mingkem']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['esjewe', 'suara', 'maklum', 'takut', 'temennya', 'komnas', 'ham', 'polisi', 'korona', 'mingkem']</t>
+          <t>['jumat', 'gabung', 'yuk', 'philosophyunderground', 'episode', 'duel', 'sokrates', 'lawan', 'nietzsche', 'setyo', 'wibowo', 'yulius', 'tandyanto']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['jumat', 'gabung', 'yuk', 'philosophyunderground', 'episode', 'duel', 'sokrates', 'lawan', 'nietzsche', 'setyo', 'wibowo', 'yulius', 'tandyanto']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17753</v>
+        <v>28521</v>
       </c>
       <c r="C11" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kuntadhi jelas belum selesai dong perjuangan melawan intoleransi dan kepicikan beragama tp</t>
+          <t>rt artikel menarik tentang gus dur dan bali rindu gus dur doa untuk gus dur as</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'jelas', 'belum', 'selesai', 'dong', 'perjuangan', 'melawan', 'intoleransi', 'dan', 'kepicikan', 'beragama', 'tp']</t>
+          <t>['rt', 'artikel', 'menarik', 'tentang', 'gus', 'dur', 'dan', 'bali', 'rindu', 'gus', 'dur', 'doa', 'untuk', 'gus', 'dur', 'as']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'artikel', 'menarik', 'tentang', 'gus', 'dur', 'dan', 'bali', 'rindu', 'gus', 'dur', 'doa', 'untuk', 'gus', 'dur', 'as']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'selesai', 'perjuangan', 'melawan', 'intoleransi', 'kepicikan', 'beragama', 'tp']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'selesai', 'juang', 'lawan', 'intoleransi', 'picik', 'agama', 'tp']</t>
+          <t>['artikel', 'menarik', 'gus', 'dur', 'bali', 'rindu', 'gus', 'dur', 'doa', 'gus', 'dur', 'as']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['artikel', 'tarik', 'gus', 'dur', 'bal', 'rindu', 'gus', 'dur', 'doa', 'gus', 'dur', 'as']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17754</v>
+        <v>28522</v>
       </c>
       <c r="C12" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt kuntadhi alhamdulillah saya bangga dengan bangsa ini terimakasih pada rekan semua yang telah membantu semampunya</t>
+          <t>rt yang diherankan apa kalau perempuan sedang tidak mood tapi memutuskan melayani suaminya itu bukan rape yg banyak kan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'alhamdulillah', 'saya', 'bangga', 'dengan', 'bangsa', 'ini', 'terimakasih', 'pada', 'rekan', 'semua', 'yang', 'telah', 'membantu', 'semampunya']</t>
+          <t>['rt', 'yang', 'diherankan', 'apa', 'kalau', 'perempuan', 'sedang', 'tidak', 'mood', 'tapi', 'memutuskan', 'melayani', 'suaminya', 'itu', 'bukan', 'rape', 'yg', 'banyak', 'kan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'yang', 'diherankan', 'apa', 'kalau', 'perempuan', 'sedang', 'tidak', 'suasana, hati', 'tapi', 'memutuskan', 'melayani', 'suaminya', 'itu', 'bukan', 'rape', 'yang', 'banyak', 'kan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'alhamdulillah', 'bangga', 'bangsa', 'terimakasih', 'rekan', 'membantu']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'alhamdulillah', 'bangga', 'bangsa', 'terimakasih', 'rekan', 'bantu']</t>
+          <t>['diherankan', 'perempuan', 'suasana, hati', 'memutuskan', 'melayani', 'suaminya', 'rape']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['heran', 'perempuan', 'suasana hati', 'putus', 'layan', 'suami', 'rape']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17755</v>
+        <v>28523</v>
       </c>
       <c r="C13" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>alhamdu lillah terima kasih mas kuntadhi yg gencar meramaikan kasus ini di medsos dan mengawali gerakan pe</t>
+          <t>rt adakah rape tanpa abuse menurut saya tidak rape in itself landasannya ya abuse physical or psychological abuse when</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['alhamdu', 'lillah', 'terima', 'kasih', 'mas', 'kuntadhi', 'yg', 'gencar', 'meramaikan', 'kasus', 'ini', 'di', 'medsos', 'dan', 'mengawali', 'gerakan', 'pe']</t>
+          <t>['rt', 'adakah', 'rape', 'tanpa', 'abuse', 'menurut', 'saya', 'tidak', 'rape', 'in', 'itself', 'landasannya', 'ya', 'abuse', 'physical', 'or', 'psychological', 'abuse', 'when']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'adakah', 'rape', 'tanpa', 'abuse', 'menurut', 'saya', 'tidak', 'rape', 'in', 'itself', 'landasannya', 'ya', 'abuse', 'physical', 'orang', 'psychological', 'abuse', 'when']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['alhamdu', 'lillah', 'terima', 'kasih', 'mas', 'kuntadhi', 'gencar', 'meramaikan', 'medsos', 'mengawali', 'gerakan', 'pe']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['alhamdu', 'lil', 'terima', 'kasih', 'mas', 'kuntadhi', 'gencar', 'ramai', 'medsos', 'awal', 'gera', 'pe']</t>
+          <t>['adakah', 'rape', 'abuse', 'rape', 'in', 'itself', 'landasannya', 'abuse', 'physical', 'orang', 'psychological', 'abuse', 'when']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ada', 'rape', 'abuse', 'rape', 'in', 'itself', 'landas', 'abuse', 'physical', 'orang', 'psychological', 'abuse', 'when']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17756</v>
+        <v>28524</v>
       </c>
       <c r="C14" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tni au tabur garam hingga di atas lampung timur agar jabodetabek tak hujan</t>
+          <t>rt dua kubu yang berseteru di partai demokrat beradu cantelan politik ahy menemui jokowi di istana bogor sedangkan moeldoko</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['tni', 'au', 'tabur', 'garam', 'hingga', 'di', 'atas', 'lampung', 'timur', 'agar', 'jabodetabek', 'tak', 'hujan']</t>
+          <t>['rt', 'dua', 'kubu', 'yang', 'berseteru', 'di', 'partai', 'demokrat', 'beradu', 'cantelan', 'politik', 'ahy', 'menemui', 'jokowi', 'di', 'istana', 'bogor', 'sedangkan', 'moeldoko']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'dua', 'kubu', 'yang', 'berseteru', 'di', 'partai', 'demokrat', 'beradu', 'cantelan', 'politik', 'agus, harimurti, yudhoyono', 'menemui', 'jokowi', 'di', 'istana', 'bogor', 'sedangkan', 'moeldoko']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['tni', 'au', 'tabur', 'garam', 'lampung', 'timur', 'jabodetabek', 'hujan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['tni', 'au', 'tabur', 'garam', 'lampung', 'timur', 'jabodetabek', 'hujan']</t>
+          <t>['kubu', 'berseteru', 'partai', 'demokrat', 'beradu', 'cantelan', 'politik', 'agus, harimurti, yudhoyono', 'menemui', 'jokowi', 'istana', 'bogor', 'moeldoko']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kubu', 'seteru', 'partai', 'demokrat', 'adu', 'cantel', 'politik', 'agus harimurti yudhoyono', 'temu', 'jokowi', 'istana', 'bogor', 'moeldoko']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17757</v>
+        <v>28525</v>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kayaknya sih aaron</t>
+          <t>rt rofiah teman sekalian berikut link pdf buku proses dan hasil kongrea ulama perempuan indonesia kupi yg antara lain menegask</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['kayaknya', 'sih', 'aaron']</t>
+          <t>['rt', 'rofiah', 'teman', 'sekalian', 'berikut', 'link', 'pdf', 'buku', 'proses', 'dan', 'hasil', 'kongrea', 'ulama', 'perempuan', 'indonesia', 'kupi', 'yg', 'antara', 'lain', 'menegask']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'rofiah', 'teman', 'sekalian', 'berikut', 'link', 'pdf', 'buku', 'proses', 'dan', 'hasil', 'kongrea', 'ulama', 'perempuan', 'indonesia', 'kupi', 'yang', 'antara', 'lain', 'menegask']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['kayaknya', 'aaron']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['kayak', 'aaron']</t>
+          <t>['rofiah', 'teman', 'link', 'pdf', 'buku', 'proses', 'hasil', 'kongrea', 'ulama', 'perempuan', 'indonesia', 'kupi', 'menegask']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['rofiah', 'teman', 'link', 'pdf', 'buku', 'proses', 'hasil', 'kongrea', 'ulama', 'perempuan', 'indonesia', 'kupi', 'menegask']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17758</v>
+        <v>28526</v>
       </c>
       <c r="C16" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>please deh moses mukjizat bukan utk caper</t>
+          <t>rt anakkampung selamat milad imm ke terus berkarya untuk kemajuan bangsa as</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['please', 'deh', 'moses', 'mukjizat', 'bukan', 'utk', 'caper']</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'imm', 'ke', 'terus', 'berkarya', 'untuk', 'kemajuan', 'bangsa', 'as']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'imm', 'ke', 'terus', 'berkarya', 'untuk', 'kemajuan', 'bangsa', 'as']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['please', 'deh', 'moses', 'mukjizat', 'caper']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['please', 'deh', 'moses', 'mukjizat', 'caper']</t>
+          <t>['anakkampung', 'selamat', 'milad', 'imm', 'berkarya', 'kemajuan', 'bangsa', 'as']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['anakkampung', 'selamat', 'milad', 'imm', 'karya', 'maju', 'bangsa', 'as']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17759</v>
+        <v>28527</v>
       </c>
       <c r="C17" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt dengan kasus absurd kaya gini tinggal tunggu waktu nanti warung buka pas ramadhan jadi penistaan agama dan habis itu berl</t>
+          <t xml:space="preserve">lipi </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'dengan', 'kasus', 'absurd', 'kaya', 'gini', 'tinggal', 'tunggu', 'waktu', 'nanti', 'warung', 'buka', 'pas', 'ramadhan', 'jadi', 'penistaan', 'agama', 'dan', 'habis', 'itu', 'berl']</t>
+          <t>['lipi']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['lembaga, ilmu, pengetahuan, indonesia']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['absurd', 'kaya', 'gini', 'tinggal', 'tunggu', 'warung', 'buka', 'pas', 'ramadhan', 'penistaan', 'agama', 'habis', 'berl']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['absurd', 'kaya', 'gin', 'tinggal', 'tunggu', 'warung', 'buka', 'pas', 'ramadhan', 'nista', 'agama', 'habis', 'berl']</t>
+          <t>['lembaga, ilmu, pengetahuan, indonesia']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['lembaga ilmu tahu indonesia']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17760</v>
+        <v>28528</v>
       </c>
       <c r="C18" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>aku rasa itu lebih tepat contoh dlm kalimat kdrt keganasan dalam rumah tangga terjadi karena tak ada</t>
+          <t>rt dulu waktu jadi aktivis imm sering menulis di korankoran salah satunya di koran indopos rubrik prokon aktivis seper</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['aku', 'rasa', 'itu', 'lebih', 'tepat', 'contoh', 'dlm', 'kalimat', 'kdrt', 'keganasan', 'dalam', 'rumah', 'tangga', 'terjadi', 'karena', 'tak', 'ada']</t>
+          <t>['rt', 'dulu', 'waktu', 'jadi', 'aktivis', 'imm', 'sering', 'menulis', 'di', 'korankoran', 'salah', 'satunya', 'di', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dulu', 'waktu', 'jadi', 'aktivis', 'imm', 'sering', 'menulis', 'di', 'korankoran', 'salah', 'satunya', 'di', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['contoh', 'dlm', 'kalimat', 'kdrt', 'keganasan', 'rumah', 'tangga']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['contoh', 'dlm', 'kalimat', 'kdrt', 'ganas', 'rumah', 'tangga']</t>
+          <t>['aktivis', 'imm', 'menulis', 'korankoran', 'salah', 'satunya', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['aktivis', 'imm', 'tulis', 'korankoran', 'salah', 'satu', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'per']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17761</v>
+        <v>28529</v>
       </c>
       <c r="C19" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt gerombolannya memang itu aja yg merasa mudah ternista dikit penistaan dikit penistaan</t>
+          <t>selamat hari raya nyepi bagi yang merayakannya semoga selalu dalam kedamaian</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'gerombolannya', 'memang', 'itu', 'aja', 'yg', 'merasa', 'mudah', 'ternista', 'dikit', 'penistaan', 'dikit', 'penistaan']</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'bagi', 'yang', 'merayakannya', 'semoga', 'selalu', 'dalam', 'kedamaian']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'bagi', 'yang', 'merayakannya', 'semoga', 'selalu', 'dalam', 'kedamaian']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['gerombolannya', 'mudah', 'ternista', 'dikit', 'penistaan', 'dikit', 'penistaan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['gerombol', 'mudah', 'nista', 'dikit', 'nista', 'dikit', 'nista']</t>
+          <t>['selamat', 'raya', 'nyepi', 'merayakannya', 'semoga', 'kedamaian']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'raya', 'moga', 'damai']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17762</v>
+        <v>28530</v>
       </c>
       <c r="C20" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>engkau cemburu engkau ganas mangsa aku dalam cakarmu bertukar tangkap dengan lepas amir hamzah</t>
+          <t>rt muslim perjalanan ke dalam diri perjalanan menakjubkan menelusuri lembah keheningan jiwa diam sekaligus ramai sepi namun</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['engkau', 'cemburu', 'engkau', 'ganas', 'mangsa', 'aku', 'dalam', 'cakarmu', 'bertukar', 'tangkap', 'dengan', 'lepas', 'amir', 'hamzah']</t>
+          <t>['rt', 'muslim', 'perjalanan', 'ke', 'dalam', 'diri', 'perjalanan', 'menakjubkan', 'menelusuri', 'lembah', 'keheningan', 'jiwa', 'diam', 'sekaligus', 'ramai', 'sepi', 'namun']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'muslim', 'perjalanan', 'ke', 'dalam', 'diri', 'perjalanan', 'menakjubkan', 'menelusuri', 'lembah', 'keheningan', 'jiwa', 'diam', 'sekaligus', 'ramai', 'sepi', 'namun']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['engkau', 'cemburu', 'engkau', 'ganas', 'mangsa', 'cakarmu', 'bertukar', 'tangkap', 'lepas', 'amir', 'hamzah']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['engkau', 'cemburu', 'engkau', 'ganas', 'mangsa', 'cakar', 'tukar', 'tangkap', 'lepas', 'amir', 'hamzah']</t>
+          <t>['muslim', 'perjalanan', 'perjalanan', 'menakjubkan', 'menelusuri', 'lembah', 'keheningan', 'jiwa', 'diam', 'ramai', 'sepi']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['muslim', 'jalan', 'jalan', 'takjub', 'telusur', 'lembah', 'hening', 'jiwa', 'diam', 'ramai', 'sepi']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17763</v>
+        <v>28531</v>
       </c>
       <c r="C21" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt the planetary society has advocated for  mars microphone for over years today released the first recorded </t>
+          <t>rt faishalz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'planetary', 'society', 'has', 'advocated', 'for', 'mars', 'microphone', 'for', 'over', 'years', 'today', 'released', 'the', 'first', 'recorded']</t>
+          <t>['rt', 'faishalz']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'faishalz']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['the', 'planetary', 'society', 'has', 'advocated', 'for', 'mars', 'microphone', 'for', 'over', 'years', 'today', 'released', 'the', 'first', 'recorded']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['the', 'planetary', 'society', 'has', 'advocated', 'for', 'mars', 'microphone', 'for', 'over', 'years', 'today', 'released', 'the', 'first', 'recorded']</t>
+          <t>['faishalz']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['faishalz']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17764</v>
+        <v>28532</v>
       </c>
       <c r="C22" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt halo philosophyunderground akan kembali bulan depan setiap jumat tanggal ganjil maret sd juni siapsiap</t>
+          <t>saya akan menentang keras kalo jkw ternyata setuju dgn ide periode yg pasti jerumusin dia tp kalo me</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'halo', 'philosophyunderground', 'akan', 'kembali', 'bulan', 'depan', 'setiap', 'jumat', 'tanggal', 'ganjil', 'maret', 'sd', 'juni', 'siapsiap']</t>
+          <t>['saya', 'akan', 'menentang', 'keras', 'kalo', 'jkw', 'ternyata', 'setuju', 'dgn', 'ide', 'periode', 'yg', 'pasti', 'jerumusin', 'dia', 'tp', 'kalo', 'me']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'akan', 'menentang', 'keras', 'kalau', 'jokowi', 'ternyata', 'setuju', 'dengan', 'ide', 'periode', 'yang', 'pasti', 'jerumusin', 'dia', 'tetapi', 'kalau', 'me']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['halo', 'philosophyunderground', 'jumat', 'tanggal', 'ganjil', 'maret', 'sd', 'juni', 'siapsiap']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['halo', 'philosophyunderground', 'jumat', 'tanggal', 'ganjil', 'maret', 'sd', 'juni', 'siapsiap']</t>
+          <t>['menentang', 'keras', 'jokowi', 'setuju', 'ide', 'periode', 'jerumusin', 'me']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['tentang', 'keras', 'jokowi', 'tuju', 'ide', 'periode', 'jerumusin', 'me']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17765</v>
+        <v>28533</v>
       </c>
       <c r="C23" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt kuntadhi gerombolan jenis ini yang mau menyeret tenaga kesehatan kita dengan pasal penistaan agama sayangnya aparat keamanan tu</t>
+          <t>tp pengalaman sebelumnya yg konsisten dari pak jkw jg sangat banyak kita lihat aja dulujgn langsung</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'gerombolan', 'jenis', 'ini', 'yang', 'mau', 'menyeret', 'tenaga', 'kesehatan', 'kita', 'dengan', 'pasal', 'penistaan', 'agama', 'sayangnya', 'aparat', 'keamanan', 'tu']</t>
+          <t>['tp', 'pengalaman', 'sebelumnya', 'yg', 'konsisten', 'dari', 'pak', 'jkw', 'jg', 'sangat', 'banyak', 'kita', 'lihat', 'aja', 'dulujgn', 'langsung']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['tetapi', 'pengalaman', 'sebelumnya', 'yang', 'konsisten', 'dari', 'pak', 'jokowi', 'juga', 'sangat', 'banyak', 'kita', 'lihat', 'saja', 'dulujgn', 'langsung']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'gerombolan', 'jenis', 'menyeret', 'tenaga', 'kesehatan', 'pasal', 'penistaan', 'agama', 'sayangnya', 'aparat', 'keamanan', 'tu']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'gerombol', 'jenis', 'seret', 'tenaga', 'sehat', 'pasal', 'nista', 'agama', 'sayang', 'aparat', 'aman', 'tu']</t>
+          <t>['pengalaman', 'konsisten', 'jokowi', 'lihat', 'dulujgn', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['alam', 'konsisten', 'jokowi', 'lihat', 'dulujgn', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17766</v>
+        <v>28534</v>
       </c>
       <c r="C24" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt utriza nulis akademik mudah asal tahu caranya nah di twitter ini saya pernah janji bagi para dosen peneliti mahasiswa</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'utriza', 'nulis', 'akademik', 'mudah', 'asal', 'tahu', 'caranya', 'nah', 'di', 'twitter', 'ini', 'saya', 'pernah', 'janji', 'bagi', 'para', 'dosen', 'peneliti', 'mahasiswa']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['utriza', 'nulis', 'akademik', 'mudah', 'twitter', 'janji', 'dosen', 'peneliti', 'mahasiswa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['utriza', 'nulis', 'akademik', 'mudah', 'twitter', 'janji', 'dosen', 'teliti', 'mahasiswa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17767</v>
+        <v>28535</v>
       </c>
       <c r="C25" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt wahai vaksinasi tidak membuat kita tidak bisa terinfeksi covid vaksinasi membuat badan kita mampu melawan </t>
+          <t>pks dongaren setuju dgn jokowi yg menolak jabatan presiden periode</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'wahai', 'vaksinasi', 'tidak', 'membuat', 'kita', 'tidak', 'bisa', 'terinfeksi', 'covid', 'vaksinasi', 'membuat', 'badan', 'kita', 'mampu', 'melawan']</t>
+          <t>['pks', 'dongaren', 'setuju', 'dgn', 'jokowi', 'yg', 'menolak', 'jabatan', 'presiden', 'periode']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['partai, keadilan, sejahtera', 'dongaren', 'setuju', 'dengan', 'jokowi', 'yang', 'menolak', 'jabatan', 'presiden', 'periode']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'terinfeksi', 'covid', 'vaksinasi', 'badan', 'melawan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'infeksi', 'covid', 'vaksinasi', 'badan', 'lawan']</t>
+          <t>['partai, keadilan, sejahtera', 'dongaren', 'setuju', 'jokowi', 'menolak', 'jabatan', 'presiden', 'periode']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['partai adil sejahtera', 'dongaren', 'tuju', 'jokowi', 'tolak', 'jabat', 'presiden', 'periode']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17768</v>
+        <v>28536</v>
       </c>
       <c r="C26" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>tolak kriminalisasi nakes menggunakan pasal penistaan agama tandatangani petisi via</t>
+          <t>tumben pks partainya pak setuju dgn jokowi yg juga menolak jabatan presiden periode</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['tolak', 'kriminalisasi', 'nakes', 'menggunakan', 'pasal', 'penistaan', 'agama', 'tandatangani', 'petisi', 'via']</t>
+          <t>['tumben', 'pks', 'partainya', 'pak', 'setuju', 'dgn', 'jokowi', 'yg', 'juga', 'menolak', 'jabatan', 'presiden', 'periode']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tumben', 'partai, keadilan, sejahtera', 'partainya', 'pak', 'setuju', 'dengan', 'jokowi', 'yang', 'juga', 'menolak', 'jabatan', 'presiden', 'periode']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['tolak', 'kriminalisasi', 'nakes', 'pasal', 'penistaan', 'agama', 'tandatangani', 'petisi', 'via']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['tolak', 'kriminalisasi', 'nakes', 'pasal', 'nista', 'agama', 'tandatangani', 'petisi', 'via']</t>
+          <t>['tumben', 'partai, keadilan, sejahtera', 'partainya', 'setuju', 'jokowi', 'menolak', 'jabatan', 'presiden', 'periode']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['tumben', 'partai adil sejahtera', 'partai', 'tuju', 'jokowi', 'tolak', 'jabat', 'presiden', 'periode']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17769</v>
+        <v>28537</v>
       </c>
       <c r="C27" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt ar anak seneng main tuh saat banjir kata gubernur januari februari jakarta banjir lagi dan anak tewas</t>
+          <t>rt lipi moderasi beragama itu bukanlah melakukan moderasi thd agama tp memoderasi pemahaman amp pengamalan umat beragama dr sikap</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'ar', 'anak', 'seneng', 'main', 'tuh', 'saat', 'banjir', 'kata', 'gubernur', 'januari', 'februari', 'jakarta', 'banjir', 'lagi', 'dan', 'anak', 'tewas']</t>
+          <t>['rt', 'lipi', 'moderasi', 'beragama', 'itu', 'bukanlah', 'melakukan', 'moderasi', 'thd', 'agama', 'tp', 'memoderasi', 'pemahaman', 'amp', 'pengamalan', 'umat', 'beragama', 'dr', 'sikap']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'lembaga, ilmu, pengetahuan, indonesia', 'moderasi', 'beragama', 'itu', 'bukanlah', 'melakukan', 'moderasi', 'terhadap', 'agama', 'tetapi', 'memoderasi', 'pemahaman', 'amp', 'pengamalan', 'umat', 'beragama', 'dari', 'sikap']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ar', 'anak', 'seneng', 'main', 'banjir', 'gubernur', 'januari', 'februari', 'jakarta', 'banjir', 'anak', 'tewas']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ar', 'anak', 'neng', 'main', 'banjir', 'gubernur', 'januari', 'februari', 'jakarta', 'banjir', 'anak', 'tewas']</t>
+          <t>['lembaga, ilmu, pengetahuan, indonesia', 'moderasi', 'beragama', 'moderasi', 'agama', 'memoderasi', 'pemahaman', 'pengamalan', 'umat', 'beragama', 'sikap']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['lembaga ilmu tahu indonesia', 'moderasi', 'agama', 'moderasi', 'agama', 'memoderasi', 'paham', 'amal', 'umat', 'agama', 'sikap']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17770</v>
+        <v>28538</v>
       </c>
       <c r="C28" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joss makasih sharingnya</t>
+          <t>rt ar jangan biarkan oposisi hanya diisi pks thread penting mujani</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['joss', 'makasih', 'sharingnya']</t>
+          <t>['rt', 'ar', 'jangan', 'biarkan', 'oposisi', 'hanya', 'diisi', 'pks', 'thread', 'penting', 'mujani']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ar', 'jangan', 'biarkan', 'oposisi', 'hanya', 'diisi', 'partai, keadilan, sejahtera', 'thread', 'penting', 'mujani']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['joss', 'makasih', 'sharingnya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['joss', 'makasih', 'sharingnya']</t>
+          <t>['ar', 'biarkan', 'oposisi', 'diisi', 'partai, keadilan, sejahtera', 'thread', 'mujani']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ar', 'biar', 'oposisi', 'isi', 'partai adil sejahtera', 'thread', 'mujani']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17771</v>
+        <v>28539</v>
       </c>
       <c r="C29" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>mvllestari judulnya spot on makasih sharingnya mba mvllestari</t>
+          <t xml:space="preserve">rt mujani yang membedakan demokrasi dengan sistem yang lain adalah adanya check and balances antara legislatif dan eksekutif </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['mvllestari', 'judulnya', 'spot', 'on', 'makasih', 'sharingnya', 'mba', 'mvllestari']</t>
+          <t>['rt', 'mujani', 'yang', 'membedakan', 'demokrasi', 'dengan', 'sistem', 'yang', 'lain', 'adalah', 'adanya', 'check', 'and', 'balances', 'antara', 'legislatif', 'dan', 'eksekutif']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'mujani', 'yang', 'membedakan', 'demokrasi', 'dengan', 'sistem', 'yang', 'lain', 'adalah', 'adanya', 'check', 'and', 'balances', 'antara', 'legislatif', 'dan', 'eksekutif']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['mvllestari', 'judulnya', 'spot', 'on', 'makasih', 'sharingnya', 'mba', 'mvllestari']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['mvllestari', 'judul', 'spot', 'on', 'makasih', 'sharingnya', 'mba', 'mvllestari']</t>
+          <t>['mujani', 'membedakan', 'demokrasi', 'sistem', 'check', 'and', 'balances', 'legislatif', 'eksekutif']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['mujani', 'beda', 'demokrasi', 'sistem', 'check', 'and', 'balances', 'legislatif', 'eksekutif']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17772</v>
+        <v>28540</v>
       </c>
       <c r="C30" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt mvllestari resiko memilih pemimpin hanya semata sentimen agama as</t>
+          <t>rt romo setyo kalo berbicara platon selalu asyik</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'mvllestari', 'resiko', 'memilih', 'pemimpin', 'hanya', 'semata', 'sentimen', 'agama', 'as']</t>
+          <t>['rt', 'romo', 'setyo', 'kalo', 'berbicara', 'platon', 'selalu', 'asyik']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'romo', 'setyo', 'kalau', 'berbicara', 'platon', 'selalu', 'asyik']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['mvllestari', 'resiko', 'memilih', 'pemimpin', 'sentimen', 'agama', 'as']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['mvllestari', 'resiko', 'pilih', 'pimpin', 'sentimen', 'agama', 'as']</t>
+          <t>['romo', 'setyo', 'berbicara', 'platon', 'asyik']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['romo', 'setyo', 'bicara', 'platon', 'asyik']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17773</v>
+        <v>28541</v>
       </c>
       <c r="C31" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt melawan sensasi itu tak mungkin entah ia esensial ataupun tidak karena begitulah cara kerumunan menafsirkan sebuah </t>
+          <t>keren nihsebuah program pendidikan filsafat oleh komunitas utan kayu dan salihara yg dikelola cs pem</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'melawan', 'sensasi', 'itu', 'tak', 'mungkin', 'entah', 'ia', 'esensial', 'ataupun', 'tidak', 'karena', 'begitulah', 'cara', 'kerumunan', 'menafsirkan', 'sebuah']</t>
+          <t>['keren', 'nihsebuah', 'program', 'pendidikan', 'filsafat', 'oleh', 'komunitas', 'utan', 'kayu', 'dan', 'salihara', 'yg', 'dikelola', 'cs', 'pem']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['keren', 'nihsebuah', 'program', 'pendidikan', 'filsafat', 'oleh', 'komunitas', 'utan', 'kayu', 'dan', 'salihara', 'yang', 'dikelola', 'rekan', 'protein, energy, malnutrition']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['melawan', 'sensasi', 'esensial', 'kerumunan', 'menafsirkan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['lawan', 'sensasi', 'esensial', 'kerumun', 'tafsir']</t>
+          <t>['keren', 'nihsebuah', 'program', 'pendidikan', 'filsafat', 'komunitas', 'utan', 'kayu', 'salihara', 'dikelola', 'rekan', 'protein, energy, malnutrition']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['keren', 'nihsebuah', 'program', 'didik', 'filsafat', 'komunitas', 'utan', 'kayu', 'salihara', 'kelola', 'rekan', 'protein energy malnutrition']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17774</v>
+        <v>28542</v>
       </c>
       <c r="C32" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt online demi kemanusiaan sekjen pbnu minta ibu dan balita dibebaskan dari penjara</t>
+          <t>rt masjid attanwir ini boleh disebut masjid revolusi berbasis enerji solar yg berkelanjutan dgn arsitektur dgn tata ruang</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'demi', 'kemanusiaan', 'sekjen', 'pbnu', 'minta', 'ibu', 'dan', 'balita', 'dibebaskan', 'dari', 'penjara']</t>
+          <t>['rt', 'masjid', 'attanwir', 'ini', 'boleh', 'disebut', 'masjid', 'revolusi', 'berbasis', 'enerji', 'solar', 'yg', 'berkelanjutan', 'dgn', 'arsitektur', 'dgn', 'tata', 'ruang']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'masjid', 'attanwir', 'ini', 'boleh', 'disebut', 'masjid', 'revolusi', 'berbasis', 'enerji', 'solar', 'yang', 'berkelanjutan', 'dengan', 'arsitektur', 'dengan', 'tata', 'ruang']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['online', 'kemanusiaan', 'sekjen', 'pbnu', 'balita', 'dibebaskan', 'penjara']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['online', 'manusia', 'sekjen', 'pbnu', 'balita', 'bebas', 'penjara']</t>
+          <t>['masjid', 'attanwir', 'masjid', 'revolusi', 'berbasis', 'enerji', 'solar', 'berkelanjutan', 'arsitektur', 'tata', 'ruang']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['masjid', 'attanwir', 'masjid', 'revolusi', 'bas', 'enerji', 'solar', 'lanjut', 'arsitektur', 'tata', 'ruang']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17775</v>
+        <v>28543</v>
       </c>
       <c r="C33" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mantab hehe makasih sharenya ka</t>
+          <t>rt video dengan kualitas gambar terbaik ini direkam tahun yang lalu tampak bahwa tempat sai haji belum diberi atap masih</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['mantab', 'hehe', 'makasih', 'sharenya', 'ka']</t>
+          <t>['rt', 'video', 'dengan', 'kualitas', 'gambar', 'terbaik', 'ini', 'direkam', 'tahun', 'yang', 'lalu', 'tampak', 'bahwa', 'tempat', 'sai', 'haji', 'belum', 'diberi', 'atap', 'masih']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'video', 'dengan', 'kualitas', 'gambar', 'terbaik', 'ini', 'direkam', 'tahun', 'yang', 'lalu', 'tampak', 'bahwa', 'tempat', 'sai', 'haji', 'belum', 'diberi', 'atap', 'masih']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['mantab', 'makasih', 'sharenya', 'ka']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['mantab', 'makasih', 'sharenya', 'ka']</t>
+          <t>['video', 'kualitas', 'gambar', 'terbaik', 'direkam', 'sai', 'haji', 'atap']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['video', 'kualitas', 'gambar', 'baik', 'rekam', 'sai', 'haji', 'atap']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17776</v>
+        <v>28544</v>
       </c>
       <c r="C34" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt akibat dari pilih pemimpin semata hny krn seiman gus as</t>
+          <t>rt kuntadhi ada nyawa melayang ada suster yang dipersekusi ada juga yang membuang tas mahal tapi dipungut lagi dunia kena pra</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'akibat', 'dari', 'pilih', 'pemimpin', 'semata', 'hny', 'krn', 'seiman', 'gus', 'as']</t>
+          <t>['rt', 'kuntadhi', 'ada', 'nyawa', 'melayang', 'ada', 'suster', 'yang', 'dipersekusi', 'ada', 'juga', 'yang', 'membuang', 'tas', 'mahal', 'tapi', 'dipungut', 'lagi', 'dunia', 'kena', 'pra']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'kuntadhi', 'ada', 'nyawa', 'melayang', 'ada', 'suster', 'yang', 'dipersekusi', 'ada', 'juga', 'yang', 'membuang', 'tas', 'mahal', 'tapi', 'dipungut', 'lagi', 'dunia', 'kena', 'pra']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['akibat', 'pilih', 'pemimpin', 'hny', 'seiman', 'gus', 'as']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['akibat', 'pilih', 'pimpin', 'hny', 'iman', 'gus', 'as']</t>
+          <t>['kuntadhi', 'nyawa', 'melayang', 'suster', 'dipersekusi', 'membuang', 'tas', 'mahal', 'dipungut', 'dunia', 'kena', 'pra']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'nyawa', 'layang', 'suster', 'persekusi', 'buang', 'tas', 'mahal', 'pungut', 'dunia', 'kena', 'pra']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17777</v>
+        <v>28545</v>
       </c>
       <c r="C35" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt memilih pemimpin tidak ada hubungan dengan keimanan tapi yang terpenting kinerjanya jakarta adalah bukti nyata dari kesal</t>
+          <t>cafe dangdut merambah new york obrolan bersama dr arifi saiman konsul ri di new york dan fitri carlina penyanyi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'memilih', 'pemimpin', 'tidak', 'ada', 'hubungan', 'dengan', 'keimanan', 'tapi', 'yang', 'terpenting', 'kinerjanya', 'jakarta', 'adalah', 'bukti', 'nyata', 'dari', 'kesal']</t>
+          <t>['cafe', 'dangdut', 'merambah', 'new', 'york', 'obrolan', 'bersama', 'dr', 'arifi', 'saiman', 'konsul', 'ri', 'di', 'new', 'york', 'dan', 'fitri', 'carlina', 'penyanyi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['cafe', 'dangdut', 'merambah', 'new', 'york', 'obrolan', 'bersama', 'dari', 'arifi', 'saiman', 'konsultasi', 'ri', 'di', 'new', 'york', 'dan', 'fitri', 'carlina', 'penyanyi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['memilih', 'pemimpin', 'hubungan', 'keimanan', 'terpenting', 'kinerjanya', 'jakarta', 'bukti', 'nyata', 'kesal']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['pilih', 'pimpin', 'hubung', 'iman', 'penting', 'kerja', 'jakarta', 'bukti', 'nyata', 'kesal']</t>
+          <t>['cafe', 'dangdut', 'merambah', 'new', 'york', 'obrolan', 'arifi', 'saiman', 'konsultasi', 'ri', 'new', 'york', 'fitri', 'carlina', 'penyanyi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['cafe', 'dangdut', 'rambah', 'new', 'york', 'obrol', 'arif', 'saiman', 'konsultasi', 'ri', 'new', 'york', 'fitri', 'carlina', 'nyanyi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17778</v>
+        <v>28546</v>
       </c>
       <c r="C36" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt ya mba tgupp ya komisaris ancol disaat banjir seperti ini masih pujapuji pemprov menggunakan data manipulatif para korban</t>
+          <t>rt inilah yang saya yakini kenapa masjid ini dinamakan attanwir masjid yang akan memberi pencahayaan bukan hanya tempat ibada</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'ya', 'mba', 'tgupp', 'ya', 'komisaris', 'ancol', 'disaat', 'banjir', 'seperti', 'ini', 'masih', 'pujapuji', 'pemprov', 'menggunakan', 'data', 'manipulatif', 'para', 'korban']</t>
+          <t>['rt', 'inilah', 'yang', 'saya', 'yakini', 'kenapa', 'masjid', 'ini', 'dinamakan', 'attanwir', 'masjid', 'yang', 'akan', 'memberi', 'pencahayaan', 'bukan', 'hanya', 'tempat', 'ibada']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'inilah', 'yang', 'saya', 'yaitu', 'kenapa', 'masjid', 'ini', 'dinamakan', 'attanwir', 'masjid', 'yang', 'akan', 'memberi', 'pencahayaan', 'bukan', 'hanya', 'tempat', 'ibada']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['mba', 'tgupp', 'komisaris', 'ancol', 'disaat', 'banjir', 'pujapuji', 'pemprov', 'data', 'manipulatif', 'korban']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['mba', 'tgupp', 'komisaris', 'ancol', 'saat', 'banjir', 'pujapuji', 'pemprov', 'data', 'manipulatif', 'korban']</t>
+          <t>['masjid', 'dinamakan', 'attanwir', 'masjid', 'pencahayaan', 'ibada']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['masjid', 'nama', 'attanwir', 'masjid', 'cahaya', 'ibada']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17779</v>
+        <v>28547</v>
       </c>
       <c r="C37" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt kalo cara jelasin anggota tguppnya aja kaya gini apa ga goblok bareng tuh semua jajaran</t>
+          <t>rt dirs sejak jaman dulu ummat selalu diperdaya oleh kabar bohong selama itu pula ummat tidak pernah belajar dari pen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'kalo', 'cara', 'jelasin', 'anggota', 'tguppnya', 'aja', 'kaya', 'gini', 'apa', 'ga', 'goblok', 'bareng', 'tuh', 'semua', 'jajaran']</t>
+          <t>['rt', 'dirs', 'sejak', 'jaman', 'dulu', 'ummat', 'selalu', 'diperdaya', 'oleh', 'kabar', 'bohong', 'selama', 'itu', 'pula', 'ummat', 'tidak', 'pernah', 'belajar', 'dari', 'pen']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'sejak', 'jaman', 'dulu', 'umat', 'selalu', 'diperdaya', 'oleh', 'kabar', 'bohong', 'selama', 'itu', 'pula', 'umat', 'tidak', 'pernah', 'belajar', 'dari', 'ingin']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['jelasin', 'anggota', 'tguppnya', 'kaya', 'gini', 'goblok', 'bareng', 'jajaran']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['jelasin', 'anggota', 'tguppnya', 'kaya', 'gin', 'goblok', 'bareng', 'jajar']</t>
+          <t>['dirs', 'jaman', 'umat', 'diperdaya', 'kabar', 'bohong', 'umat', 'belajar']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['dirs', 'jaman', 'umat', 'daya', 'kabar', 'bohong', 'umat', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17780</v>
+        <v>28548</v>
       </c>
       <c r="C38" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt kualitas jubir anies yg mengaku aktivis sosial</t>
+          <t xml:space="preserve">rt dirs anaknya itu bermasalah di sekolah terus bikin alasan ke bapaknya dg cerita soal gurunya dan yg disebut sbg karikatur nabi </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'kualitas', 'jubir', 'anies', 'yg', 'mengaku', 'aktivis', 'sosial']</t>
+          <t>['rt', 'dirs', 'anaknya', 'itu', 'bermasalah', 'di', 'sekolah', 'terus', 'bikin', 'alasan', 'ke', 'bapaknya', 'dg', 'cerita', 'soal', 'gurunya', 'dan', 'yg', 'disebut', 'sbg', 'karikatur', 'nabi']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'anaknya', 'itu', 'bermasalah', 'di', 'sekolah', 'terus', 'bikin', 'alasan', 'ke', 'bapaknya', 'dengan', 'cerita', 'soal', 'gurunya', 'dan', 'yang', 'disebut', 'sebagai', 'karikatur', 'nabi']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kualitas', 'jubir', 'anies', 'mengaku', 'aktivis', 'sosial']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kualitas', 'jubir', 'anies', 'aku', 'aktivis', 'sosial']</t>
+          <t>['dirs', 'anaknya', 'bermasalah', 'sekolah', 'alasan', 'bapaknya', 'cerita', 'gurunya', 'karikatur', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['dirs', 'anak', 'masalah', 'sekolah', 'alas', 'bapak', 'cerita', 'guru', 'karikatur', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17781</v>
+        <v>28549</v>
       </c>
       <c r="C39" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt rpjmd awal kita melihat bahwa banjir adalah prioritas nomor permasalahan di dki jakarta tapi di apbd</t>
+          <t>isra miraj dalam kajian kitab ulama nusantara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'rpjmd', 'awal', 'kita', 'melihat', 'bahwa', 'banjir', 'adalah', 'prioritas', 'nomor', 'permasalahan', 'di', 'dki', 'jakarta', 'tapi', 'di', 'apbd']</t>
+          <t>['isra', 'miraj', 'dalam', 'kajian', 'kitab', 'ulama', 'nusantara']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['isra', 'miraj', 'dalam', 'kajian', 'kitab', 'ulama', 'nusantara']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['rpjmd', 'banjir', 'prioritas', 'nomor', 'permasalahan', 'dki', 'jakarta', 'apbd']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['rpjmd', 'banjir', 'prioritas', 'nomor', 'masalah', 'dki', 'jakarta', 'apbd']</t>
+          <t>['isra', 'miraj', 'kajian', 'kitab', 'ulama', 'nusantara']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['isra', 'miraj', 'kaji', 'kitab', 'ulama', 'nusantara']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17782</v>
+        <v>28550</v>
       </c>
       <c r="C40" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt duh kok susah diajak kerja sama sih padahal banjir sangat menyulitkan masyarakat hasto ungkap menteri pu marahmarah </t>
+          <t>rt rofiah lingkar ngaji kgi nalar kritis muslimah ada mbak suhu gerakan perempuan mbaknyai badriyah fayumi pimpinan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'duh', 'kok', 'susah', 'diajak', 'kerja', 'sama', 'sih', 'padahal', 'banjir', 'sangat', 'menyulitkan', 'masyarakat', 'hasto', 'ungkap', 'menteri', 'pu', 'marahmarah']</t>
+          <t>['rt', 'rofiah', 'lingkar', 'ngaji', 'kgi', 'nalar', 'kritis', 'muslimah', 'ada', 'mbak', 'suhu', 'gerakan', 'perempuan', 'mbaknyai', 'badriyah', 'fayumi', 'pimpinan']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'rofiah', 'lingkar', 'mengaji', 'kgi', 'nalar', 'kritis', 'muslimah', 'ada', 'mbak', 'suhu', 'gerakan', 'perempuan', 'mbaknyai', 'badriyah', 'fayumi', 'pimpinan']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['duh', 'susah', 'diajak', 'kerja', 'banjir', 'menyulitkan', 'masyarakat', 'hasto', 'menteri', 'pu', 'marahmarah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['duh', 'susah', 'ajak', 'kerja', 'banjir', 'sulit', 'masyarakat', 'hasto', 'menteri', 'pu', 'marahmarah']</t>
+          <t>['rofiah', 'lingkar', 'mengaji', 'kgi', 'nalar', 'kritis', 'muslimah', 'mbak', 'suhu', 'gerakan', 'perempuan', 'mbaknyai', 'badriyah', 'fayumi', 'pimpinan']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['rofiah', 'lingkar', 'aji', 'kgi', 'nalar', 'kritis', 'muslimah', 'mbak', 'suhu', 'gera', 'perempuan', 'mbaknyai', 'badriyah', 'fayumi', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17783</v>
+        <v>28551</v>
       </c>
       <c r="C41" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>oh oke thanks udah ngasih tau</t>
+          <t>rt excellent piece by understanding the advantages and limitations of economists method clarifies the value</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['oh', 'oke', 'thanks', 'udah', 'ngasih', 'tau']</t>
+          <t>['rt', 'excellent', 'piece', 'by', 'understanding', 'the', 'advantages', 'and', 'limitations', 'of', 'economists', 'method', 'clarifies', 'the', 'value']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'excellent', 'piece', 'by', 'understanding', 'the', 'advantages', 'and', 'limitations', 'of', 'economists', 'method', 'clarifies', 'the', 'value']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['oh', 'oke', 'thanks', 'udah', 'ngasih']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['oh', 'oke', 'thanks', 'udah', 'ngasih']</t>
+          <t>['excellent', 'piece', 'by', 'understanding', 'the', 'advantages', 'and', 'limitations', 'of', 'economists', 'method', 'clarifies', 'the', 'value']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['excellent', 'piece', 'by', 'understanding', 'the', 'advantages', 'and', 'limitations', 'of', 'economists', 'method', 'clarifies', 'the', 'value']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17784</v>
+        <v>28552</v>
       </c>
       <c r="C42" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt id plt ketua umum dpp psi ganesha menyatakan gubernur anies baswedan tidak pernah serius mengatasi banjir jakarta dan le</t>
+          <t>galihhh bung dlm bbrp kesempatan pake kok istilah datakrasi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'plt', 'ketua', 'umum', 'dpp', 'psi', 'ganesha', 'menyatakan', 'gubernur', 'anies', 'baswedan', 'tidak', 'pernah', 'serius', 'mengatasi', 'banjir', 'jakarta', 'dan', 'le']</t>
+          <t>['galihhh', 'bung', 'dlm', 'bbrp', 'kesempatan', 'pake', 'kok', 'istilah', 'datakrasi']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['galihhh', 'bung', 'dalam', 'beberapa', 'kesempatan', 'pakai', 'kok', 'istilah', 'datakrasi']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['id', 'plt', 'ketua', 'dpp', 'psi', 'ganesha', 'gubernur', 'anies', 'baswedan', 'serius', 'mengatasi', 'banjir', 'jakarta', 'le']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['id', 'plt', 'ketua', 'dpp', 'psi', 'ganesha', 'gubernur', 'anies', 'baswedan', 'serius', 'atas', 'banjir', 'jakarta', 'le']</t>
+          <t>['galihhh', 'kesempatan', 'pakai', 'istilah', 'datakrasi']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['galihhh', 'sempat', 'pakai', 'istilah', 'datakrasi']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17785</v>
+        <v>28553</v>
       </c>
       <c r="C43" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt ribuan buku terkena banjir di icc jakarta</t>
+          <t>faishalz santri yg ngenger ilmu di ciputat</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'ribuan', 'buku', 'terkena', 'banjir', 'di', 'icc', 'jakarta']</t>
+          <t>['faishalz', 'santri', 'yg', 'ngenger', 'ilmu', 'di', 'ciputat']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['faishalz', 'santri', 'yang', 'ngenger', 'ilmu', 'di', 'ciputat']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ribuan', 'buku', 'terkena', 'banjir', 'icc', 'jakarta']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ribu', 'buku', 'kena', 'banjir', 'icc', 'jakarta']</t>
+          <t>['faishalz', 'santri', 'ngenger', 'ilmu', 'ciputat']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['faishalz', 'santri', 'ngenger', 'ilmu', 'ciputat']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17786</v>
+        <v>28554</v>
       </c>
       <c r="C44" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">duhh ikut sedih mas harta yg sangat berharga hancur krn banjir icc itu apa </t>
+          <t>rt siang ini melemaskan jemari dengan menuliskan lirik ya lal wathan ciptaan kh abdul wahab chasbullah lagu ini menyeman</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['duhh', 'ikut', 'sedih', 'mas', 'harta', 'yg', 'sangat', 'berharga', 'hancur', 'krn', 'banjir', 'icc', 'itu', 'apa']</t>
+          <t>['rt', 'siang', 'ini', 'melemaskan', 'jemari', 'dengan', 'menuliskan', 'lirik', 'ya', 'lal', 'wathan', 'ciptaan', 'kh', 'abdul', 'wahab', 'chasbullah', 'lagu', 'ini', 'menyeman']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'siang', 'ini', 'melemaskan', 'jemari', 'dengan', 'menuliskan', 'lirik', 'ya', 'lal', 'wathan', 'ciptaan', 'kh', 'abdul', 'wahab', 'chasbullah', 'lagu', 'ini', 'menyeman']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['duhh', 'sedih', 'mas', 'harta', 'berharga', 'hancur', 'banjir', 'icc']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['duhh', 'sedih', 'mas', 'harta', 'harga', 'hancur', 'banjir', 'icc']</t>
+          <t>['siang', 'melemaskan', 'jemari', 'menuliskan', 'lirik', 'lal', 'wathan', 'ciptaan', 'kh', 'abdul', 'wahab', 'chasbullah', 'lagu', 'menyeman']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['siang', 'lemas', 'jemari', 'tulis', 'lirik', 'lal', 'wathan', 'cipta', 'kh', 'abdul', 'wahab', 'chasbullah', 'lagu', 'seman']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17787</v>
+        <v>28555</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt jadi kita hari ini masih harus waspada waspada berikutnya tanggal februari jelas dwikorita http</t>
+          <t>perkawinan filsafat dan politik perlu utk menegalkan epistemokrasi yg bercorak open society popper</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'jadi', 'kita', 'hari', 'ini', 'masih', 'harus', 'waspada', 'waspada', 'berikutnya', 'tanggal', 'februari', 'jelas', 'dwikorita', 'http']</t>
+          <t>['perkawinan', 'filsafat', 'dan', 'politik', 'perlu', 'utk', 'menegalkan', 'epistemokrasi', 'yg', 'bercorak', 'open', 'society', 'popper']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['perkawinan', 'filsafat', 'dan', 'politik', 'perlu', 'untuk', 'menegalkan', 'epistemokrasi', 'yang', 'bercorak', 'open', 'masyarakat', 'popper']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['waspada', 'waspada', 'tanggal', 'februari', 'dwikorita', 'http']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['waspada', 'waspada', 'tanggal', 'februari', 'dwikorita', 'http']</t>
+          <t>['perkawinan', 'filsafat', 'politik', 'menegalkan', 'epistemokrasi', 'bercorak', 'open', 'masyarakat', 'popper']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['kawin', 'filsafat', 'politik', 'tegal', 'epistemokrasi', 'corak', 'open', 'masyarakat', 'popper']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17788</v>
+        <v>28556</v>
       </c>
       <c r="C46" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt nat bapakibu jika memiliki pengaduan terkait banjir evakuasi kebutuhan darurat silakan langsung mengontak anggota dprd </t>
+          <t>rt semoga dalam usiahidup kita kita bisa menyaksikan perkawinan filsafat dan teknologi yathanks bung</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'nat', 'bapakibu', 'jika', 'memiliki', 'pengaduan', 'terkait', 'banjir', 'evakuasi', 'kebutuhan', 'darurat', 'silakan', 'langsung', 'mengontak', 'anggota', 'dprd']</t>
+          <t>['rt', 'semoga', 'dalam', 'usiahidup', 'kita', 'kita', 'bisa', 'menyaksikan', 'perkawinan', 'filsafat', 'dan', 'teknologi', 'yathanks', 'bung']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'dalam', 'usiahidup', 'kita', 'kita', 'bisa', 'menyaksikan', 'perkawinan', 'filsafat', 'dan', 'teknologi', 'yathanks', 'bung']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['nat', 'bapakibu', 'memiliki', 'pengaduan', 'terkait', 'banjir', 'evakuasi', 'kebutuhan', 'darurat', 'silakan', 'langsung', 'mengontak', 'anggota', 'dprd']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['nat', 'bapakibu', 'milik', 'adu', 'kait', 'banjir', 'evakuasi', 'butuh', 'darurat', 'sila', 'langsung', 'kontak', 'anggota', 'dprd']</t>
+          <t>['semoga', 'usiahidup', 'menyaksikan', 'perkawinan', 'filsafat', 'teknologi', 'yathanks']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['moga', 'usiahidup', 'saksi', 'kawin', 'filsafat', 'teknologi', 'yathanks']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17789</v>
+        <v>28557</v>
       </c>
       <c r="C47" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt alaidid tega bener bikin twit begini coba anda turun banjir jakarta hari ini gub lalu punya konsep penanggulangan ada yg dik</t>
+          <t>selamat ultahbung semoga tetap sehat dan hepi dan tetap trengginas dgn upaya sinergi inovasi sa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'alaidid', 'tega', 'bener', 'bikin', 'twit', 'begini', 'coba', 'anda', 'turun', 'banjir', 'jakarta', 'hari', 'ini', 'gub', 'lalu', 'punya', 'konsep', 'penanggulangan', 'ada', 'yg', 'dik']</t>
+          <t>['selamat', 'ultahbung', 'semoga', 'tetap', 'sehat', 'dan', 'hepi', 'dan', 'tetap', 'trengginas', 'dgn', 'upaya', 'sinergi', 'inovasi', 'sa']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['selamat', 'ultahbung', 'semoga', 'tetap', 'sehat', 'dan', 'senang', 'dan', 'tetap', 'trengginas', 'dengan', 'upaya', 'sinergi', 'inovasi', 'sa']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['alaidid', 'tega', 'bener', 'twit', 'coba', 'turun', 'banjir', 'jakarta', 'gub', 'konsep', 'penanggulangan', 'dik']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['alaidid', 'tega', 'bener', 'twit', 'coba', 'turun', 'banjir', 'jakarta', 'gub', 'konsep', 'tanggulang', 'dik']</t>
+          <t>['selamat', 'ultahbung', 'semoga', 'sehat', 'senang', 'trengginas', 'upaya', 'sinergi', 'inovasi', 'sa']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['selamat', 'ultahbung', 'moga', 'sehat', 'senang', 'trengginas', 'upaya', 'sinergi', 'inovasi', 'sa']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17790</v>
+        <v>28558</v>
       </c>
       <c r="C48" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>videoku tahun lalu gubernur seiman tapi amburadul akhmad sahal via</t>
+          <t>rt kuntadhi air mengalir sampai jauh wah kpk kudu menelisik sampai ke ujung nih</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['videoku', 'tahun', 'lalu', 'gubernur', 'seiman', 'tapi', 'amburadul', 'akhmad', 'sahal', 'via']</t>
+          <t>['rt', 'kuntadhi', 'air', 'mengalir', 'sampai', 'jauh', 'wah', 'kpk', 'kudu', 'menelisik', 'sampai', 'ke', 'ujung', 'nih']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'kuntadhi', 'air', 'mengalir', 'sampai', 'jauh', 'wah', 'komisi, pemberantasan, korupsi', 'harus', 'menelisik', 'sampai', 'ke', 'ujung', 'nih']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['videoku', 'gubernur', 'seiman', 'amburadul', 'akhmad', 'sahal', 'via']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['video', 'gubernur', 'iman', 'amburadul', 'akhmad', 'sahal', 'via']</t>
+          <t>['kuntadhi', 'air', 'mengalir', 'komisi, pemberantasan, korupsi', 'menelisik', 'ujung']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'air', 'alir', 'komisi berantas korupsi', 'tisik', 'ujung']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17791</v>
+        <v>28559</v>
       </c>
       <c r="C49" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt ar gubernur jakarta nyebut banjir jakarta karena air kiriman dari bogor dan depok dinas sumber daya air jakarta menyebut st</t>
+          <t>rt kasus pembunuhan samuel paty berawal dari kebohongan murid yang lagi kena skors dan tidak masuk kelas</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'ar', 'gubernur', 'jakarta', 'nyebut', 'banjir', 'jakarta', 'karena', 'air', 'kiriman', 'dari', 'bogor', 'dan', 'depok', 'dinas', 'sumber', 'daya', 'air', 'jakarta', 'menyebut', 'st']</t>
+          <t>['rt', 'kasus', 'pembunuhan', 'samuel', 'paty', 'berawal', 'dari', 'kebohongan', 'murid', 'yang', 'lagi', 'kena', 'skors', 'dan', 'tidak', 'masuk', 'kelas']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'kasus', 'pembunuhan', 'samuel', 'paty', 'berawal', 'dari', 'kebohongan', 'murid', 'yang', 'lagi', 'kena', 'skors', 'dan', 'tidak', 'masuk', 'kelas']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['ar', 'gubernur', 'jakarta', 'nyebut', 'banjir', 'jakarta', 'air', 'kiriman', 'bogor', 'depok', 'dinas', 'sumber', 'daya', 'air', 'jakarta', 'menyebut', 'st']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['ar', 'gubernur', 'jakarta', 'nyebut', 'banjir', 'jakarta', 'air', 'kirim', 'bogor', 'depok', 'dinas', 'sumber', 'daya', 'air', 'jakarta', 'sebut', 'st']</t>
+          <t>['pembunuhan', 'samuel', 'paty', 'kebohongan', 'murid', 'kena', 'skors', 'masuk', 'kelas']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['bunuh', 'samuel', 'paty', 'bohong', 'murid', 'kena', 'skors', 'masuk', 'kelas']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17792</v>
+        <v>28560</v>
       </c>
       <c r="C50" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>banjirnya parah banget semoga lekas surut stay safe</t>
+          <t>rt the new end of history</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['banjirnya', 'parah', 'banget', 'semoga', 'lekas', 'surut', 'stay', 'safe']</t>
+          <t>['rt', 'the', 'new', 'end', 'of', 'history']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'the', 'new', 'end', 'of', 'histori']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['banjirnya', 'parah', 'banget', 'semoga', 'lekas', 'surut', 'stay', 'safe']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['banjir', 'parah', 'banget', 'moga', 'lekas', 'surut', 'stay', 'safe']</t>
+          <t>['the', 'new', 'end', 'of', 'histori']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['the', 'new', 'end', 'of', 'histori']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17793</v>
+        <v>28561</v>
       </c>
       <c r="C51" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>nuer through and through met pagi bro</t>
+          <t xml:space="preserve">rt ahong di bukubuku pelajaran sekolah yang seringkali diulas itu mengenai peperangan rasulullah jarang sekali kita menemukan </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['nuer', 'through', 'and', 'through', 'met', 'pagi', 'bro']</t>
+          <t>['rt', 'ahong', 'di', 'bukubuku', 'pelajaran', 'sekolah', 'yang', 'seringkali', 'diulas', 'itu', 'mengenai', 'peperangan', 'rasulullah', 'jarang', 'sekali', 'kita', 'menemukan']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'ahong', 'di', 'bukubuku', 'pelajaran', 'sekolah', 'yang', 'seringkali', 'diulas', 'itu', 'mengenai', 'peperangan', 'rasulullah', 'jarang', 'sekali', 'kita', 'menemukan']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['nuer', 'through', 'and', 'through', 'met', 'pagi', 'bro']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['nuer', 'through', 'and', 'through', 'met', 'pagi', 'bro']</t>
+          <t>['ahong', 'bukubuku', 'pelajaran', 'sekolah', 'seringkali', 'diulas', 'peperangan', 'rasulullah', 'jarang', 'menemukan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ahong', 'bukubuku', 'ajar', 'sekolah', 'seringkali', 'ulas', 'peperangan', 'rasulullah', 'jarang', 'temu']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17794</v>
+        <v>28562</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt makam dibiayai sepenuhnya oleh keluarga inti pemda hanya membangun infrastruktur pelebaran jalan parkir bus dll de</t>
+          <t>siap menyimak diskusi buku keberagaman islam nusantara yg ditulis oleh ketum lakpesdam pbnu dr congra</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'makam', 'dibiayai', 'sepenuhnya', 'oleh', 'keluarga', 'inti', 'pemda', 'hanya', 'membangun', 'infrastruktur', 'pelebaran', 'jalan', 'parkir', 'bus', 'dll', 'de']</t>
+          <t>['siap', 'menyimak', 'diskusi', 'buku', 'keberagaman', 'islam', 'nusantara', 'yg', 'ditulis', 'oleh', 'ketum', 'lakpesdam', 'pbnu', 'dr', 'congra']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['siap', 'menyimak', 'diskusi', 'buku', 'keberagaman', 'islam', 'nusantara', 'yang', 'ditulis', 'oleh', 'ketua, umum', 'lakpesdam', 'pengurus, besar, nahdlatul, ulama', 'dari', 'congra']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['makam', 'dibiayai', 'sepenuhnya', 'keluarga', 'inti', 'pemda', 'membangun', 'infrastruktur', 'pelebaran', 'jalan', 'parkir', 'bus', 'dll', 'de']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['makam', 'biaya', 'sepenuh', 'keluarga', 'inti', 'pemda', 'bangun', 'infrastruktur', 'lebar', 'jalan', 'parkir', 'bus', 'dll', 'de']</t>
+          <t>['menyimak', 'diskusi', 'buku', 'keberagaman', 'islam', 'nusantara', 'ditulis', 'ketua, umum', 'lakpesdam', 'pengurus, besar, nahdlatul, ulama', 'congra']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['simak', 'diskusi', 'buku', 'agam', 'islam', 'nusantara', 'tulis', 'ketua umum', 'lakpesdam', 'urus besar nahdlatul ulama', 'congra']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17795</v>
+        <v>28563</v>
       </c>
       <c r="C53" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt saya sandingkan dengan pertanyaan balik ya mengapa zaman sekarang tidak ada perbudakan padahal di zaman rasulullah saw </t>
+          <t>rt anakkampung usai klb demokrat kini klb dki as</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'sandingkan', 'dengan', 'pertanyaan', 'balik', 'ya', 'mengapa', 'zaman', 'sekarang', 'tidak', 'ada', 'perbudakan', 'padahal', 'di', 'zaman', 'rasulullah', 'saw']</t>
+          <t>['rt', 'anakkampung', 'usai', 'klb', 'demokrat', 'kini', 'klb', 'dki', 'as']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'anakkampung', 'usai', 'klb', 'demokrat', 'kini', 'klb', 'daerah, khusus, ibukota', 'as']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['sandingkan', 'zaman', 'perbudakan', 'zaman', 'rasulullah', 'saw']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['sanding', 'zaman', 'budak', 'zaman', 'rasulullah', 'saw']</t>
+          <t>['anakkampung', 'klb', 'demokrat', 'klb', 'daerah, khusus, ibukota', 'as']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['anakkampung', 'klb', 'demokrat', 'klb', 'daerah khusus ibukota', 'as']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17796</v>
+        <v>28564</v>
       </c>
       <c r="C54" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt pembukaan tentang pesan damai dan toleransi sesama makhluk allah saling menghormati dan bergandengan ta</t>
+          <t>rt happy from audre lorde</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'pembukaan', 'tentang', 'pesan', 'damai', 'dan', 'toleransi', 'sesama', 'makhluk', 'allah', 'saling', 'menghormati', 'dan', 'bergandengan', 'ta']</t>
+          <t>['rt', 'happy', 'from', 'audre', 'lorde']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'happy', 'from', 'audre', 'lorde']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['pembukaan', 'pesan', 'damai', 'toleransi', 'makhluk', 'allah', 'menghormati', 'bergandengan', 'ta']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['buka', 'pesan', 'damai', 'toleransi', 'makhluk', 'allah', 'hormat', 'gandeng', 'ta']</t>
+          <t>['happy', 'from', 'audre', 'lorde']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['happy', 'from', 'audre', 'lorde']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17797</v>
+        <v>28565</v>
       </c>
       <c r="C55" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt bagaimana presiden yang paling sering kalian hina dungu bodoh pembohong bermuka jelek dll kalian sebut presiden</t>
+          <t>rt presiden siapa kuasai berpotensi kuasai dunia saya kamu jangan balik ke je</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'bagaimana', 'presiden', 'yang', 'paling', 'sering', 'kalian', 'hina', 'dungu', 'bodoh', 'pembohong', 'bermuka', 'jelek', 'dll', 'kalian', 'sebut', 'presiden']</t>
+          <t>['rt', 'presiden', 'siapa', 'kuasai', 'berpotensi', 'kuasai', 'dunia', 'saya', 'kamu', 'jangan', 'balik', 'ke', 'je']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'presiden', 'siapa', 'kuasai', 'berpotensi', 'kuasai', 'dunia', 'saya', 'kamu', 'jangan', 'balik', 'ke', 'je']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['presiden', 'hina', 'dungu', 'bodoh', 'pembohong', 'bermuka', 'jelek', 'dll', 'presiden']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['presiden', 'hina', 'dungu', 'bodoh', 'bohong', 'muka', 'jelek', 'dll', 'presiden']</t>
+          <t>['presiden', 'kuasai', 'berpotensi', 'kuasai', 'dunia', 'je']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['presiden', 'kuasa', 'potensi', 'kuasa', 'dunia', 'je']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17798</v>
+        <v>28566</v>
       </c>
       <c r="C56" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kode apa ya</t>
+          <t>rt saya penasaran kpk dan bareskrim polri samasama diberitakan mengusut dugaan korupsi terkait program gagal rumah dp nya</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kode', 'apa', 'ya']</t>
+          <t>['rt', 'saya', 'penasaran', 'kpk', 'dan', 'bareskrim', 'polri', 'samasama', 'diberitakan', 'mengusut', 'dugaan', 'korupsi', 'terkait', 'program', 'gagal', 'rumah', 'dp', 'nya']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'saya', 'penasaran', 'komisi, pemberantasan, korupsi', 'dan', 'badan, reserse, kriminal', 'kepolisian, republik, indonesia', 'samasama', 'diberitakan', 'mengusut', 'dugaan', 'korupsi', 'terkait', 'program', 'gagal', 'rumah', 'uang, muka', 'nya']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['kode']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kode']</t>
+          <t>['penasaran', 'komisi, pemberantasan, korupsi', 'badan, reserse, kriminal', 'kepolisian, republik, indonesia', 'samasama', 'diberitakan', 'mengusut', 'dugaan', 'korupsi', 'terkait', 'program', 'gagal', 'rumah', 'uang, muka']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['penasaran', 'komisi berantas korupsi', 'badan reserse kriminal', 'polisi republik indonesia', 'samasama', 'berita', 'usut', 'duga', 'korupsi', 'kait', 'program', 'gagal', 'rumah', 'uang muka']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17799</v>
+        <v>28567</v>
       </c>
       <c r="C57" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ulin swmoga ga jadi terdakwa</t>
+          <t>artikel menarik hamid awaluddin kudeta dalam partai politik kompas senin maret</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ulin', 'swmoga', 'ga', 'jadi', 'terdakwa']</t>
+          <t>['artikel', 'menarik', 'hamid', 'awaluddin', 'kudeta', 'dalam', 'partai', 'politik', 'kompas', 'senin', 'maret']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['artikel', 'menarik', 'hamid', 'awaluddin', 'kudeta', 'dalam', 'partai', 'politik', 'kompas', 'senin', 'maret']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['ulin', 'swmoga', 'terdakwa']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['ulin', 'swmoga', 'dakwa']</t>
+          <t>['artikel', 'menarik', 'hamid', 'awaluddin', 'kudeta', 'partai', 'politik', 'kompas', 'senin', 'maret']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['artikel', 'tarik', 'hamid', 'awaluddin', 'kudeta', 'partai', 'politik', 'kompas', 'senin', 'maret']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17800</v>
+        <v>28568</v>
       </c>
       <c r="C58" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>wah makasih apdetnya  berartis gw kudet</t>
+          <t>selamat ultah semoga tetap sehat panjang umur yg berkah dan bermanfaat bagi umat dan bangsa</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['wah', 'makasih', 'apdetnya', 'berartis', 'gw', 'kudet']</t>
+          <t>['selamat', 'ultah', 'semoga', 'tetap', 'sehat', 'panjang', 'umur', 'yg', 'berkah', 'dan', 'bermanfaat', 'bagi', 'umat', 'dan', 'bangsa']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['selamat', 'ulang, tahun', 'semoga', 'tetap', 'sehat', 'panjang', 'umur', 'yang', 'berkah', 'dan', 'bermanfaat', 'bagi', 'umat', 'dan', 'bangsa']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['makasih', 'apdetnya', 'berartis', 'gw', 'kudet']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['makasih', 'apdetnya', 'artis', 'gw', 'kudet']</t>
+          <t>['selamat', 'ulang, tahun', 'semoga', 'sehat', 'umur', 'berkah', 'bermanfaat', 'umat', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang tahun', 'moga', 'sehat', 'umur', 'berkah', 'manfaat', 'umat', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17801</v>
+        <v>28569</v>
       </c>
       <c r="C59" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>mempertahankan diri dari upya perkosaan kok malah jadi tersangka absurd kalo sampe kadi terdakwa lebih absurd lag</t>
+          <t>rt nah keren ri lumayan lah tangkapan miliar di dki untuk program rumah dp rupiah lanjut formula  https</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['mempertahankan', 'diri', 'dari', 'upya', 'perkosaan', 'kok', 'malah', 'jadi', 'tersangka', 'absurd', 'kalo', 'sampe', 'kadi', 'terdakwa', 'lebih', 'absurd', 'lag']</t>
+          <t>['rt', 'nah', 'keren', 'ri', 'lumayan', 'lah', 'tangkapan', 'miliar', 'di', 'dki', 'untuk', 'program', 'rumah', 'dp', 'rupiah', 'lanjut', 'formula', 'https']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'nah', 'keren', 'ri', 'lumayan', 'lah', 'tangkapan', 'miliar', 'di', 'daerah, khusus, ibukota', 'untuk', 'program', 'rumah', 'uang, muka', 'rupiah', 'lanjut', 'formula', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['mempertahankan', 'upya', 'perkosaan', 'tersangka', 'absurd', 'sampe', 'kadi', 'terdakwa', 'absurd', 'lag']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['tahan', 'upya', 'perkosa', 'sangka', 'absurd', 'sampe', 'kadi', 'dakwa', 'absurd', 'lag']</t>
+          <t>['keren', 'ri', 'lumayan', 'tangkapan', 'miliar', 'daerah, khusus, ibukota', 'program', 'rumah', 'uang, muka', 'rupiah', 'formula', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['keren', 'ri', 'lumayan', 'tangkap', 'miliar', 'daerah khusus ibukota', 'program', 'rumah', 'uang muka', 'rupiah', 'formula', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17802</v>
+        <v>28570</v>
       </c>
       <c r="C60" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>aslinya no woman nuh cry nuh dlm bhs jamaica artinya dont</t>
+          <t>gercep joss bib</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['aslinya', 'no', 'woman', 'nuh', 'cry', 'nuh', 'dlm', 'bhs', 'jamaica', 'artinya', 'dont']</t>
+          <t>['gercep', 'joss', 'bib']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['gerak, cepat', 'joss', 'bib']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['aslinya', 'no', 'woman', 'nuh', 'cry', 'nuh', 'dlm', 'bhs', 'jamaica', 'dont']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['asli', 'no', 'woman', 'nuh', 'cry', 'nuh', 'dlm', 'bhs', 'jamaica', 'dont']</t>
+          <t>['gerak, cepat', 'joss', 'bib']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['gerak cepat', 'joss', 'bib']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17803</v>
+        <v>28571</v>
       </c>
       <c r="C61" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt budiman estimasi jp morgan indonesia diperkirakan mencapai imunitas warga pada akhir oktober</t>
+          <t>pelik jg ya masalahnya coba saya teruskan ke bib utk diteruskan ke yg mengur</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'budiman', 'estimasi', 'jp', 'morgan', 'indonesia', 'diperkirakan', 'mencapai', 'imunitas', 'warga', 'pada', 'akhir', 'oktober']</t>
+          <t>['pelik', 'jg', 'ya', 'masalahnya', 'coba', 'saya', 'teruskan', 'ke', 'bib', 'utk', 'diteruskan', 'ke', 'yg', 'mengur']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['pelik', 'juga', 'ya', 'masalahnya', 'coba', 'saya', 'teruskan', 'ke', 'bib', 'untuk', 'diteruskan', 'ke', 'yang', 'mengur']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['budiman', 'estimasi', 'jp', 'morgan', 'indonesia', 'mencapai', 'imunitas', 'warga', 'oktober']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['budiman', 'estimasi', 'jp', 'morgan', 'indonesia', 'capai', 'imunitas', 'warga', 'oktober']</t>
+          <t>['pelik', 'coba', 'teruskan', 'bib', 'diteruskan', 'mengur']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['pelik', 'coba', 'terus', 'bib', 'terus', 'kur']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17804</v>
+        <v>28572</v>
       </c>
       <c r="C62" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt ketika dki berseberangan dengan nyc</t>
+          <t>tapi di video ini saya ga nyebut demi moore</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'ketika', 'dki', 'berseberangan', 'dengan', 'nyc']</t>
+          <t>['tapi', 'di', 'video', 'ini', 'saya', 'ga', 'nyebut', 'demi', 'moore']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tapi', 'di', 'video', 'ini', 'saya', 'tidak', 'menyebut', 'demi', 'moore']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['dki', 'berseberangan', 'nyc']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['dki', 'berangan', 'nyc']</t>
+          <t>['video', 'menyebut', 'moore']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['video', 'sebut', 'moore']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17805</v>
+        <v>28573</v>
       </c>
       <c r="C63" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt simak yg sekarang menjadi pasien mengucapkan ulang tahun utk rspku gamping sehat selalu buya </t>
+          <t>dirs arifin</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'simak', 'yg', 'sekarang', 'menjadi', 'pasien', 'mengucapkan', 'ulang', 'tahun', 'utk', 'rspku', 'gamping', 'sehat', 'selalu', 'buya']</t>
+          <t>['dirs', 'arifin']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dirs', 'arifin']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
+          <t>['dirs', 'arifin']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['dirs', 'arifin']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17806</v>
+        <v>28574</v>
       </c>
       <c r="C64" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt wamenkumham eddy hiariej menilai edhy prabowo dan juliari batubara layak dituntut hukuman mati karena melakukan korupsi di </t>
+          <t>istiqlal vaksinasi lintas agama vatikan terpesona  kata akhmad sahal via</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'wamenkumham', 'eddy', 'hiariej', 'menilai', 'edhy', 'prabowo', 'dan', 'juliari', 'batubara', 'layak', 'dituntut', 'hukuman', 'mati', 'karena', 'melakukan', 'korupsi', 'di']</t>
+          <t>['istiqlal', 'vaksinasi', 'lintas', 'agama', 'vatikan', 'terpesona', 'kata', 'akhmad', 'sahal', 'via']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['istiqlal', 'vaksinasi', 'lintas', 'agama', 'vatikan', 'terpesona', 'kata', 'akhmad', 'sahal', 'via']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['wamenkumham', 'eddy', 'hiariej', 'menilai', 'edhy', 'prabowo', 'juliari', 'batubara', 'layak', 'dituntut', 'hukuman', 'mati', 'korupsi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['wamenkumham', 'eddy', 'hiariej', 'nilai', 'edhy', 'prabowo', 'juliari', 'batubara', 'layak', 'tuntut', 'hukum', 'mati', 'korupsi']</t>
+          <t>['istiqlal', 'vaksinasi', 'lintas', 'agama', 'vatikan', 'terpesona', 'akhmad', 'sahal', 'via']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['istiqlal', 'vaksinasi', 'lintas', 'agama', 'vatikan', 'pesona', 'akhmad', 'sahal', 'via']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17807</v>
+        <v>28575</v>
       </c>
       <c r="C65" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>saling jengkelnya sampe typo haha</t>
+          <t>rt tv hal baik yang harus terus diwujudkan untuk indonesia yang lebih baik as simak lebih lanjut di link berikut https</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['saling', 'jengkelnya', 'sampe', 'typo', 'haha']</t>
+          <t>['rt', 'tv', 'hal', 'baik', 'yang', 'harus', 'terus', 'diwujudkan', 'untuk', 'indonesia', 'yang', 'lebih', 'baik', 'as', 'simak', 'lebih', 'lanjut', 'di', 'link', 'berikut', 'https']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'televisi', 'hal', 'baik', 'yang', 'harus', 'terus', 'diwujudkan', 'untuk', 'indonesia', 'yang', 'lebih', 'baik', 'as', 'simak', 'lebih', 'lanjut', 'di', 'link', 'berikut', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['jengkelnya', 'sampe', 'typo', 'haha']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['jengkel', 'sampe', 'typo', 'haha']</t>
+          <t>['televisi', 'diwujudkan', 'indonesia', 'as', 'simak', 'link', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['televisi', 'wujud', 'indonesia', 'as', 'simak', 'link', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17808</v>
+        <v>28576</v>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ini apaan wamen anaknya hary taboe mengutamakan proyek bapaknya jelas ini conflict of interest yg mengarah pada</t>
+          <t>biarin yg penting cakep hahha</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['ini', 'apaan', 'wamen', 'anaknya', 'hary', 'taboe', 'mengutamakan', 'proyek', 'bapaknya', 'jelas', 'ini', 'conflict', 'of', 'interest', 'yg', 'mengarah', 'pada']</t>
+          <t>['biarin', 'yg', 'penting', 'cakep', 'hahha']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['biarkan', 'yang', 'penting', 'cakap', 'haha']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['wamen', 'anaknya', 'hary', 'taboe', 'mengutamakan', 'proyek', 'bapaknya', 'conflict', 'of', 'interest', 'mengarah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['wamen', 'anak', 'hary', 'taboe', 'utama', 'proyek', 'bapak', 'conflict', 'of', 'interest', 'arah']</t>
+          <t>['biarkan', 'cakap', 'haha']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['biar', 'cakap', 'haha']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17809</v>
+        <v>28577</v>
       </c>
       <c r="C67" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>judulnya kek cerita silat kho ping hoo penangkis serangan dari sampang</t>
+          <t>ghosting adalah naksir cewek yg mirip demi moore</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['judulnya', 'kek', 'cerita', 'silat', 'kho', 'ping', 'hoo', 'penangkis', 'serangan', 'dari', 'sampang']</t>
+          <t>['ghosting', 'adalah', 'naksir', 'cewek', 'yg', 'mirip', 'demi', 'moore']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['ghosting', 'adalah', 'menaksir', 'cewek', 'yang', 'mirip', 'demi', 'moore']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['judulnya', 'kek', 'cerita', 'silat', 'kho', 'ping', 'hoo', 'penangkis', 'serangan', 'sampang']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['judul', 'kek', 'cerita', 'silat', 'kho', 'ping', 'hoo', 'tangkis', 'serang', 'sampang']</t>
+          <t>['ghosting', 'menaksir', 'cewek', 'moore']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['ghosting', 'taksir', 'cewek', 'moore']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17810</v>
+        <v>28578</v>
       </c>
       <c r="C68" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>respek dgn bapakmu mba</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['respek', 'dgn', 'bapakmu', 'mba']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['respek', 'bapakmu', 'mba']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['respek', 'bapak', 'mba']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17811</v>
+        <v>28579</v>
       </c>
       <c r="C69" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt kebaikan yang buruk itu taat yang dihiasi bangga sembari meremehkan orang lain karena tak bisa setaat dia ibn athail</t>
+          <t>rt kuntadhi jika moeldoko tidak mundur dari ksp kesan yang ditangkap rakyat dalam konflik demokrat adalah ahy bersembunyi di keti</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'kebaikan', 'yang', 'buruk', 'itu', 'taat', 'yang', 'dihiasi', 'bangga', 'sembari', 'meremehkan', 'orang', 'lain', 'karena', 'tak', 'bisa', 'setaat', 'dia', 'ibn', 'athail']</t>
+          <t>['rt', 'kuntadhi', 'jika', 'moeldoko', 'tidak', 'mundur', 'dari', 'ksp', 'kesan', 'yang', 'ditangkap', 'rakyat', 'dalam', 'konflik', 'demokrat', 'adalah', 'ahy', 'bersembunyi', 'di', 'keti']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'kuntadhi', 'jika', 'moeldoko', 'tidak', 'mundur', 'dari', 'ksp', 'kesan', 'yang', 'ditangkap', 'rakyat', 'dalam', 'konflik', 'demokrat', 'adalah', 'agus, harimurti, yudhoyono', 'bersembunyi', 'di', 'keti']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['kebaikan', 'buruk', 'taat', 'dihiasi', 'bangga', 'sembari', 'meremehkan', 'orang', 'setaat', 'ibn', 'athail']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['baik', 'buruk', 'taat', 'hias', 'bangga', 'sembari', 'remeh', 'orang', 'taat', 'ibn', 'athail']</t>
+          <t>['kuntadhi', 'moeldoko', 'mundur', 'ksp', 'kesan', 'ditangkap', 'rakyat', 'konflik', 'demokrat', 'agus, harimurti, yudhoyono', 'bersembunyi', 'keti']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'moeldoko', 'mundur', 'ksp', 'kesan', 'tangkap', 'rakyat', 'konflik', 'demokrat', 'agus harimurti yudhoyono', 'sembunyi', 'keti']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17812</v>
+        <v>28580</v>
       </c>
       <c r="C70" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt kiai muda betawi lulusan tebuireng amp alazhar ini mesti lebih byk berdakwah online biar jamaah mudah ngikuti monggo difollo</t>
+          <t xml:space="preserve">moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'kiai', 'muda', 'betawi', 'lulusan', 'tebuireng', 'amp', 'alazhar', 'ini', 'mesti', 'lebih', 'byk', 'berdakwah', 'online', 'biar', 'jamaah', 'mudah', 'ngikuti', 'monggo', 'difollo']</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['kiai', 'muda', 'betawi', 'lulusan', 'tebuireng', 'alazhar', 'mesti', 'byk', 'berdakwah', 'online', 'jamaah', 'mudah', 'ngikuti', 'monggo', 'difollo']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['kiai', 'muda', 'betawi', 'lulus', 'tebuireng', 'alazhar', 'mesti', 'byk', 'dakwah', 'online', 'jamaah', 'mudah', 'ngikuti', 'monggo', 'difollo']</t>
+          <t>['moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17813</v>
+        <v>28581</v>
       </c>
       <c r="C71" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt pemerintah akan mendiskusikan inisiatif utk merevisi uu ite dulu pd bnyk yg usul dgn penuh semangat agar dibuat</t>
+          <t xml:space="preserve">moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum pd via klb biarlah </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'pemerintah', 'akan', 'mendiskusikan', 'inisiatif', 'utk', 'merevisi', 'uu', 'ite', 'dulu', 'pd', 'bnyk', 'yg', 'usul', 'dgn', 'penuh', 'semangat', 'agar', 'dibuat']</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum', 'pd', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum', 'pada', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mendiskusikan', 'inisiatif', 'merevisi', 'uu', 'ite', 'pd', 'bnyk', 'usul', 'penuh', 'semangat']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['perintah', 'diskusi', 'inisiatif', 'revisi', 'uu', 'ite', 'pd', 'bnyk', 'usul', 'penuh', 'semangat']</t>
+          <t>['moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum', 'via', 'klb', 'biarlah']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum', 'via', 'klb', 'biar']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17814</v>
+        <v>28582</v>
       </c>
       <c r="C72" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt ysh bp presiden mohon berkenan segera turun tangan memutuskan struktur brin ini sudah bln terkatung riset</t>
+          <t>setyanto moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ket</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'ysh', 'bp', 'presiden', 'mohon', 'berkenan', 'segera', 'turun', 'tangan', 'memutuskan', 'struktur', 'brin', 'ini', 'sudah', 'bln', 'terkatung', 'riset']</t>
+          <t>['setyanto', 'moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ket']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['setyanto', 'moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ket']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['ysh', 'bp', 'presiden', 'mohon', 'berkenan', 'turun', 'tangan', 'memutuskan', 'struktur', 'brin', 'bln', 'terkatung', 'riset']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['ysh', 'bp', 'presiden', 'mohon', 'kenan', 'turun', 'tangan', 'putus', 'struktur', 'brin', 'bln', 'katung', 'riset']</t>
+          <t>['setyanto', 'moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ket']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['setyanto', 'moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ket']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17815</v>
+        <v>28583</v>
       </c>
       <c r="C73" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt ada segelintir manusia yg dianugerahi maziyyah keistimewaan oleh tuhan berupa kemampuan mengubah cara pandang banyak orang</t>
+          <t>ajir moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum pd</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'segelintir', 'manusia', 'yg', 'dianugerahi', 'maziyyah', 'keistimewaan', 'oleh', 'tuhan', 'berupa', 'kemampuan', 'mengubah', 'cara', 'pandang', 'banyak', 'orang']</t>
+          <t>['ajir', 'moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum', 'pd']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ajir', 'moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum', 'pada']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['segelintir', 'manusia', 'dianugerahi', 'maziyyah', 'keistimewaan', 'tuhan', 'kemampuan', 'mengubah', 'pandang', 'orang']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['gelintir', 'manusia', 'anugerah', 'maziyyah', 'istimewa', 'tuhan', 'mampu', 'ubah', 'pandang', 'orang']</t>
+          <t>['ajir', 'moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['ajir', 'moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17816</v>
+        <v>28584</v>
       </c>
       <c r="C74" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kang jalal jalaluddin rakhmat sunni syiah bersaudara atau musuh talk show dengan via</t>
+          <t xml:space="preserve">moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum pd via klb biarlah </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kang', 'jalal', 'jalaluddin', 'rakhmat', 'sunni', 'syiah', 'bersaudara', 'atau', 'musuh', 'talk', 'show', 'dengan', 'via']</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum', 'pd', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum', 'pada', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['kang', 'jalal', 'jalaluddin', 'rakhmat', 'sunni', 'syiah', 'bersaudara', 'musuh', 'talk', 'show', 'via']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['kang', 'jalal', 'jalaluddin', 'rakhmat', 'sunni', 'syiah', 'saudara', 'musuh', 'talk', 'show', 'via']</t>
+          <t>['moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum', 'via', 'klb', 'biarlah']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum', 'via', 'klb', 'biar']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17817</v>
+        <v>28585</v>
       </c>
       <c r="C75" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rajiun turut berduka cita semoga kang jalal husnul khatimah</t>
+          <t>moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum pd</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'semoga', 'kang', 'jalal', 'husnul', 'khatimah']</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum', 'pd']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum', 'pada']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'semoga', 'kang', 'jalal', 'husnul', 'khatimah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'moga', 'kang', 'jalal', 'husnul', 'khatimah']</t>
+          <t>['moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17818</v>
+        <v>28586</v>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt ahong mayoritas ulama berpandangan bahwa semua bagian dari anjing baik tubuhnya bila basah atau air liurnya itu najis </t>
+          <t xml:space="preserve">moeldoko saat ini terlbat dlm pusaran konflik internal partai demokrat krn didapuk jadi ketum pd via klb biarlah </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'ahong', 'mayoritas', 'ulama', 'berpandangan', 'bahwa', 'semua', 'bagian', 'dari', 'anjing', 'baik', 'tubuhnya', 'bila', 'basah', 'atau', 'air', 'liurnya', 'itu', 'najis']</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dlm', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'krn', 'didapuk', 'jadi', 'ketum', 'pd', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['moeldoko', 'saat', 'ini', 'terlbat', 'dalam', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'karena', 'didapuk', 'jadi', 'ketua, umum', 'pada', 'via', 'klb', 'biarlah']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['ahong', 'mayoritas', 'ulama', 'berpandangan', 'anjing', 'tubuhnya', 'basah', 'air', 'liurnya', 'najis']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['ahong', 'mayoritas', 'ulama', 'pandang', 'anjing', 'tubuh', 'basah', 'air', 'liur', 'najis']</t>
+          <t>['moeldoko', 'terlbat', 'pusaran', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua, umum', 'via', 'klb', 'biarlah']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'terlbat', 'pusar', 'konflik', 'internal', 'partai', 'demokrat', 'didapuk', 'ketua umum', 'via', 'klb', 'biar']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17819</v>
+        <v>28587</v>
       </c>
       <c r="C77" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt yuk nyumbang tulisan ke ada honor tapi sekedar buat ngopi internet adalah sungai besar informasi amp pengetahuan</t>
+          <t>rt mujani setelah ksp moeldoko ditetapkan jadi ketua partai demokrat lewat klb maka selanjutnya tergantung negara lewat menkum</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'yuk', 'nyumbang', 'tulisan', 'ke', 'ada', 'honor', 'tapi', 'sekedar', 'buat', 'ngopi', 'internet', 'adalah', 'sungai', 'besar', 'informasi', 'amp', 'pengetahuan']</t>
+          <t>['rt', 'mujani', 'setelah', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'partai', 'demokrat', 'lewat', 'klb', 'maka', 'selanjutnya', 'tergantung', 'negara', 'lewat', 'menkum']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'mujani', 'setelah', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'partai', 'demokrat', 'lewat', 'klb', 'maka', 'selanjutnya', 'tergantung', 'negara', 'lewat', 'menkum']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['yuk', 'nyumbang', 'tulisan', 'honor', 'sekedar', 'ngopi', 'internet', 'sungai', 'informasi', 'pengetahuan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['yuk', 'nyumbang', 'tulis', 'honor', 'dar', 'ngopi', 'internet', 'sungai', 'informasi', 'tahu']</t>
+          <t>['mujani', 'ksp', 'moeldoko', 'ditetapkan', 'ketua', 'partai', 'demokrat', 'klb', 'tergantung', 'negara', 'menkum']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['mujani', 'ksp', 'moeldoko', 'tetap', 'ketua', 'partai', 'demokrat', 'klb', 'gantung', 'negara', 'menkum']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17820</v>
+        <v>28588</v>
       </c>
       <c r="C78" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>memang beda siapa pula yg menyamakannya saya kan cuma bilang teringat esai tsb</t>
+          <t>setuju pak mestinya segera mencopot pak moeldoko dari jabatan ketua ksp ga perlu menunggu pengunduran dir</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['memang', 'beda', 'siapa', 'pula', 'yg', 'menyamakannya', 'saya', 'kan', 'cuma', 'bilang', 'teringat', 'esai', 'tsb']</t>
+          <t>['setuju', 'pak', 'mestinya', 'segera', 'mencopot', 'pak', 'moeldoko', 'dari', 'jabatan', 'ketua', 'ksp', 'ga', 'perlu', 'menunggu', 'pengunduran', 'dir']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['setuju', 'pak', 'mestinya', 'segera', 'mencopot', 'pak', 'moeldoko', 'dari', 'jabatan', 'ketua', 'ksp', 'tidak', 'perlu', 'menunggu', 'pengunduran', 'dir']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['beda', 'menyamakannya', 'esai', 'tsb']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['beda', 'sama', 'esai', 'tsb']</t>
+          <t>['setuju', 'mestinya', 'mencopot', 'moeldoko', 'jabatan', 'ketua', 'ksp', 'menunggu', 'pengunduran', 'dir']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['tuju', 'mesti', 'copot', 'moeldoko', 'jabat', 'ketua', 'ksp', 'tunggu', 'undur', 'dir']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17821</v>
+        <v>28589</v>
       </c>
       <c r="C79" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jadi inget esai bertrand russell the harm that good men do bahaya orang baikbaik mnrtnya banyak seniman</t>
+          <t>kuntadhi hehedangduter kaffah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['jadi', 'inget', 'esai', 'bertrand', 'russell', 'the', 'harm', 'that', 'good', 'men', 'do', 'bahaya', 'orang', 'baikbaik', 'mnrtnya', 'banyak', 'seniman']</t>
+          <t>['kuntadhi', 'hehedangduter', 'kaffah']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kuntadhi', 'hehedangduter', 'kaffah']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['inget', 'esai', 'bertrand', 'russell', 'the', 'harm', 'that', 'good', 'men', 'do', 'bahaya', 'orang', 'baikbaik', 'mnrtnya', 'seniman']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['inget', 'esai', 'bertrand', 'russell', 'the', 'harm', 'that', 'good', 'men', 'do', 'bahaya', 'orang', 'baikbaik', 'mnrtnya', 'seniman']</t>
+          <t>['kuntadhi', 'hehedangduter', 'kaffah']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'hehedangduter', 'kaffah']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17822</v>
+        <v>28590</v>
       </c>
       <c r="C80" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt di kelas filsafat kali ini kita bisa mempelajari kritik atas sains temporalitas kebenaran membuka kedok kebenaran sebagai </t>
+          <t>kuntadhi melintas</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'kelas', 'filsafat', 'kali', 'ini', 'kita', 'bisa', 'mempelajari', 'kritik', 'atas', 'sains', 'temporalitas', 'kebenaran', 'membuka', 'kedok', 'kebenaran', 'sebagai']</t>
+          <t>['kuntadhi', 'melintas']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['kuntadhi', 'melintas']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kelas', 'filsafat', 'kali', 'mempelajari', 'kritik', 'sains', 'temporalitas', 'kebenaran', 'membuka', 'kedok', 'kebenaran']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['kelas', 'filsafat', 'kali', 'ajar', 'kritik', 'sains', 'temporalitas', 'benar', 'buka', 'kedok', 'benar']</t>
+          <t>['kuntadhi', 'melintas']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'lintas']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17823</v>
+        <v>28591</v>
       </c>
       <c r="C81" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kenapa pada diem aja ya mrk yg ngaku bela islam jg tokoh dan simpatisan partai yg ngaku sok paling islam pdhl ci</t>
+          <t>azyumardi anakkampung mukti sama azyumardi samoga tetap sehat dan mencerahkan</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['kenapa', 'pada', 'diem', 'aja', 'ya', 'mrk', 'yg', 'ngaku', 'bela', 'islam', 'jg', 'tokoh', 'dan', 'simpatisan', 'partai', 'yg', 'ngaku', 'sok', 'paling', 'islam', 'pdhl', 'ci']</t>
+          <t>['azyumardi', 'anakkampung', 'mukti', 'sama', 'azyumardi', 'samoga', 'tetap', 'sehat', 'dan', 'mencerahkan']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['azyumardi', 'anakkampung', 'mukti', 'sama', 'azyumardi', 'semoga', 'tetap', 'sehat', 'dan', 'mencerahkan']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['diem', 'mrk', 'ngaku', 'bela', 'islam', 'jg', 'tokoh', 'simpatisan', 'partai', 'ngaku', 'sok', 'islam', 'pdhl', 'ci']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['diem', 'mrk', 'ngaku', 'bela', 'islam', 'jg', 'tokoh', 'simpatisan', 'partai', 'ngaku', 'sok', 'islam', 'pdhl', 'ci']</t>
+          <t>['azyumardi', 'anakkampung', 'mukti', 'azyumardi', 'semoga', 'sehat', 'mencerahkan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'anakkampung', 'mukti', 'azyumardi', 'moga', 'sehat', 'cerah']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17824</v>
+        <v>28592</v>
       </c>
       <c r="C82" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt notodiputro nampaknya dia tdk tahu kalau ada hadist riwayat bukhari bhw ada wanita pelacur yg diberi ampunan hanya ka</t>
+          <t>rt azyumardi terima kasih kawan semua semoga umur bertambahberkurang tetap membuat kita tambah bermanfaat amin yra</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'notodiputro', 'nampaknya', 'dia', 'tdk', 'tahu', 'kalau', 'ada', 'hadist', 'riwayat', 'bukhari', 'bhw', 'ada', 'wanita', 'pelacur', 'yg', 'diberi', 'ampunan', 'hanya', 'ka']</t>
+          <t>['rt', 'azyumardi', 'terima', 'kasih', 'kawan', 'semua', 'semoga', 'umur', 'bertambahberkurang', 'tetap', 'membuat', 'kita', 'tambah', 'bermanfaat', 'amin', 'yra']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'terima', 'kasih', 'kawan', 'semua', 'semoga', 'umur', 'bertambahberkurang', 'tetap', 'membuat', 'kita', 'tambah', 'bermanfaat', 'amin', 'ya, rabbal, alamin']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['notodiputro', 'nampaknya', 'hadist', 'riwayat', 'bukhari', 'bhw', 'wanita', 'pelacur', 'ampunan', 'ka']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['notodiputro', 'nampaknya', 'hadist', 'riwayat', 'bukhari', 'bhw', 'wanita', 'lacur', 'ampun', 'ka']</t>
+          <t>['azyumardi', 'terima', 'kasih', 'kawan', 'semoga', 'umur', 'bertambahberkurang', 'bermanfaat', 'amin', 'ya, rabbal, alamin']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'terima', 'kasih', 'kawan', 'moga', 'umur', 'bertambahberkurang', 'manfaat', 'amin', 'ya rabbal alamin']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17825</v>
+        <v>28593</v>
       </c>
       <c r="C83" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt polisi sudah bisa langsung menangkap yahya waloni ini karena telah melanggar pasal kuhp tentang penganiayaan binatang</t>
+          <t>rt asyari simulasi tahapan pemilu serentak dengan problematikanya dirs azyumardi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'polisi', 'sudah', 'bisa', 'langsung', 'menangkap', 'yahya', 'waloni', 'ini', 'karena', 'telah', 'melanggar', 'pasal', 'kuhp', 'tentang', 'penganiayaan', 'binatang']</t>
+          <t>['rt', 'asyari', 'simulasi', 'tahapan', 'pemilu', 'serentak', 'dengan', 'problematikanya', 'dirs', 'azyumardi']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'asyari', 'simulasi', 'tahapan', 'pemilihan, umum', 'serentak', 'dengan', 'problematikanya', 'dirs', 'azyumardi']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['polisi', 'langsung', 'menangkap', 'yahya', 'waloni', 'melanggar', 'pasal', 'kuhp', 'penganiayaan', 'binatang']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['polisi', 'langsung', 'tangkap', 'yahya', 'waloni', 'langgar', 'pasal', 'kuhp', 'aniaya', 'binatang']</t>
+          <t>['asyari', 'simulasi', 'tahapan', 'pemilihan, umum', 'serentak', 'problematikanya', 'dirs', 'azyumardi']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['asyari', 'simulasi', 'tahap', 'pilih umum', 'serentak', 'problematikanya', 'dirs', 'azyumardi']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17826</v>
+        <v>28594</v>
       </c>
       <c r="C84" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt happy valentines day to the three who never fail to make me smile your dazzling light makes everything brighter https</t>
+          <t>rt wamenkumham edward omar sharif hiariej menilai pasal dan di uu ite sebagai pasal multitafsir</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'happy', 'valentines', 'day', 'to', 'the', 'three', 'who', 'never', 'fail', 'to', 'make', 'me', 'smile', 'your', 'dazzling', 'light', 'makes', 'everything', 'brighter', 'https']</t>
+          <t>['rt', 'wamenkumham', 'edward', 'omar', 'sharif', 'hiariej', 'menilai', 'pasal', 'dan', 'di', 'uu', 'ite', 'sebagai', 'pasal', 'multitafsir']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'wamenkumham', 'edward', 'omar', 'sharif', 'hiariej', 'menilai', 'pasal', 'dan', 'di', 'undang, undang', 'informasi, transaksi, elektronik', 'sebagai', 'pasal', 'multitafsir']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['happy', 'valentines', 'day', 'to', 'the', 'three', 'who', 'never', 'fail', 'to', 'make', 'me', 'smile', 'your', 'dazzling', 'light', 'makes', 'everything', 'brighter', 'https']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['happy', 'valentines', 'day', 'to', 'the', 'three', 'who', 'never', 'fail', 'to', 'make', 'me', 'smile', 'your', 'dazzling', 'light', 'makes', 'everything', 'brighter', 'https']</t>
+          <t>['wamenkumham', 'edward', 'omar', 'sharif', 'hiariej', 'menilai', 'pasal', 'undang, undang', 'informasi, transaksi, elektronik', 'pasal', 'multitafsir']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['wamenkumham', 'edward', 'omar', 'sharif', 'hiariej', 'nilai', 'pasal', 'undang undang', 'informasi transaksi elektronik', 'pasal', 'multitafsir']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17827</v>
+        <v>28595</v>
       </c>
       <c r="C85" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt as twips kalo mau mendalami islam dari aspek ajaran dan perkembangan sejarahnya sila baca karya cak nur ini sangat layak di</t>
+          <t>well taken min thanks komennya</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'as', 'twips', 'kalo', 'mau', 'mendalami', 'islam', 'dari', 'aspek', 'ajaran', 'dan', 'perkembangan', 'sejarahnya', 'sila', 'baca', 'karya', 'cak', 'nur', 'ini', 'sangat', 'layak', 'di']</t>
+          <t>['well', 'taken', 'min', 'thanks', 'komennya']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['well', 'taken', 'min', 'terima, kasih', 'komennya']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['as', 'twips', 'mendalami', 'islam', 'aspek', 'ajaran', 'perkembangan', 'sejarahnya', 'sila', 'baca', 'karya', 'cak', 'nur', 'layak']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['as', 'twips', 'dalam', 'islam', 'aspek', 'ajar', 'kembang', 'sejarah', 'sila', 'baca', 'karya', 'cak', 'nur', 'layak']</t>
+          <t>['well', 'taken', 'min', 'terima, kasih', 'komennya']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['well', 'taken', 'min', 'terima kasih', 'komennya']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17828</v>
+        <v>28596</v>
       </c>
       <c r="C86" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt wees jejak digital memang kejaaam</t>
+          <t>rt anakkampung selamat milad ke prof  azra sehat sllu pikiran prof telah ikut membangun dan memajukan manusia indonesia</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'wees', 'jejak', 'digital', 'memang', 'kejaaam']</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'ke', 'prof', 'azra', 'sehat', 'sllu', 'pikiran', 'prof', 'telah', 'ikut', 'membangun', 'dan', 'memajukan', 'manusia', 'indonesia']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'ke', 'prof', 'azra', 'sehat', 'selalu', 'pikiran', 'prof', 'telah', 'ikut', 'membangun', 'dan', 'memajukan', 'manusia', 'indonesia']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['wees', 'jejak', 'digital', 'kejaaam']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['wees', 'jejak', 'digital', 'kejaaam']</t>
+          <t>['anakkampung', 'selamat', 'milad', 'prof', 'azra', 'sehat', 'pikiran', 'prof', 'membangun', 'memajukan', 'manusia', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['anakkampung', 'selamat', 'milad', 'prof', 'azra', 'sehat', 'pikir', 'prof', 'bangun', 'maju', 'manusia', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17829</v>
+        <v>28597</v>
       </c>
       <c r="C87" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt alaidid isinya fitnah di belapun pakai fitnah kadang menyebut perilaku ini sbg kritik meski sdh jelas hoax mau dibawa kemana</t>
+          <t>rt jarak fisik terjagajarak ide tidak bersama dokter mei neurosaintis bicara ttg contoh komite sains kepresidenan</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'alaidid', 'isinya', 'fitnah', 'di', 'belapun', 'pakai', 'fitnah', 'kadang', 'menyebut', 'perilaku', 'ini', 'sbg', 'kritik', 'meski', 'sdh', 'jelas', 'hoax', 'mau', 'dibawa', 'kemana']</t>
+          <t>['rt', 'jarak', 'fisik', 'terjagajarak', 'ide', 'tidak', 'bersama', 'dokter', 'mei', 'neurosaintis', 'bicara', 'ttg', 'contoh', 'komite', 'sains', 'kepresidenan']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'jarak', 'fisik', 'terjagajarak', 'ide', 'tidak', 'bersama', 'dokter', 'mei', 'neurosaintis', 'bicara', 'tentang', 'contoh', 'komite', 'sains', 'kepresidenan']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['alaidid', 'isinya', 'fitnah', 'belapun', 'pakai', 'fitnah', 'kadang', 'menyebut', 'perilaku', 'sbg', 'kritik', 'hoax', 'dibawa', 'kemana']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['alaidid', 'isi', 'fitnah', 'bela', 'pakai', 'fitnah', 'kadang', 'sebut', 'perilaku', 'sbg', 'kritik', 'hoax', 'bawa', 'mana']</t>
+          <t>['jarak', 'fisik', 'terjagajarak', 'ide', 'dokter', 'mei', 'neurosaintis', 'bicara', 'contoh', 'komite', 'sains', 'kepresidenan']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['jarak', 'fisik', 'terjagajarak', 'ide', 'dokter', 'mei', 'neurosaintis', 'bicara', 'contoh', 'komite', 'sains', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17830</v>
+        <v>28598</v>
       </c>
       <c r="C88" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>eja hehe kita kan mendukung pak jokowi scr kritis dan obyektif kalo ada yg ga bisa menerima ya abaikan aja</t>
+          <t>sama massaya jg ga sreg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['eja', 'hehe', 'kita', 'kan', 'mendukung', 'pak', 'jokowi', 'scr', 'kritis', 'dan', 'obyektif', 'kalo', 'ada', 'yg', 'ga', 'bisa', 'menerima', 'ya', 'abaikan', 'aja']</t>
+          <t>['sama', 'massaya', 'jg', 'ga', 'sreg']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['sama', 'massaya', 'juga', 'tidak', 'sreg']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['eja', 'mendukung', 'jokowi', 'scr', 'kritis', 'obyektif', 'menerima', 'abaikan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['eja', 'dukung', 'jokowi', 'scr', 'kritis', 'obyektif', 'terima', 'abai']</t>
+          <t>['massaya', 'sreg']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['massaya', 'sreg']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17831</v>
+        <v>28599</v>
       </c>
       <c r="C89" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>susianti hehe kita kan niatnya mendukung pak jokowi scr kritis dan obyektif mbak kalo ada yg ga bisa menerima ya abaikan aja</t>
+          <t xml:space="preserve">rt bagir paus fransiskus berkunjung ke iraq dan bertemu ayatullah sistani pemimpin spiritual tertinggi syiah di sana di sudut </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['susianti', 'hehe', 'kita', 'kan', 'niatnya', 'mendukung', 'pak', 'jokowi', 'scr', 'kritis', 'dan', 'obyektif', 'mbak', 'kalo', 'ada', 'yg', 'ga', 'bisa', 'menerima', 'ya', 'abaikan', 'aja']</t>
+          <t>['rt', 'bagir', 'paus', 'fransiskus', 'berkunjung', 'ke', 'iraq', 'dan', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'di', 'sana', 'di', 'sudut']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'paus', 'fransiskus', 'berkunjung', 'ke', 'iraq', 'dan', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'di', 'sana', 'di', 'sudut']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['susianti', 'niatnya', 'mendukung', 'jokowi', 'scr', 'kritis', 'obyektif', 'mbak', 'menerima', 'abaikan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['susianti', 'niat', 'dukung', 'jokowi', 'scr', 'kritis', 'obyektif', 'mbak', 'terima', 'abai']</t>
+          <t>['bagir', 'paus', 'fransiskus', 'berkunjung', 'iraq', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'sudut']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['bagir', 'paus', 'fransiskus', 'kunjung', 'iraq', 'temu', 'ayatullah', 'sistani', 'pimpin', 'spiritual', 'tinggi', 'syiah', 'sudut']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17832</v>
+        <v>28600</v>
       </c>
       <c r="C90" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt as cara terbaik mendukung jokowi adalah dgn mengkritiknya scr terbuka kalo jokowi keliru bukannya nyari alasan utk membelanya</t>
+          <t>asyari tetap sehat jg mas</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'as', 'cara', 'terbaik', 'mendukung', 'jokowi', 'adalah', 'dgn', 'mengkritiknya', 'scr', 'terbuka', 'kalo', 'jokowi', 'keliru', 'bukannya', 'nyari', 'alasan', 'utk', 'membelanya']</t>
+          <t>['asyari', 'tetap', 'sehat', 'jg', 'mas']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['asyari', 'tetap', 'sehat', 'juga', 'mas']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['as', 'terbaik', 'mendukung', 'jokowi', 'mengkritiknya', 'scr', 'terbuka', 'jokowi', 'keliru', 'nyari', 'alasan', 'membelanya']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['as', 'baik', 'dukung', 'jokowi', 'kritik', 'scr', 'buka', 'jokowi', 'keliru', 'nyari', 'alas', 'bela']</t>
+          <t>['asyari', 'sehat', 'mas']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['asyari', 'sehat', 'mas']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17833</v>
+        <v>28601</v>
       </c>
       <c r="C91" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt eja saya sangat setuju amp berusaha keras berada di posisi seperti yg di twit mas as ini</t>
+          <t>asyari mantab mas asyari tetap sehat dan trengginas ya hehe</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'eja', 'saya', 'sangat', 'setuju', 'amp', 'berusaha', 'keras', 'berada', 'di', 'posisi', 'seperti', 'yg', 'di', 'twit', 'mas', 'as', 'ini']</t>
+          <t>['asyari', 'mantab', 'mas', 'asyari', 'tetap', 'sehat', 'dan', 'trengginas', 'ya', 'hehe']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['asyari', 'mantap', 'mas', 'asyari', 'tetap', 'sehat', 'dan', 'trengginas', 'ya', 'hehe']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['eja', 'setuju', 'berusaha', 'keras', 'posisi', 'twit', 'mas', 'as']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['eja', 'tuju', 'usaha', 'keras', 'posisi', 'twit', 'mas', 'as']</t>
+          <t>['asyari', 'mantap', 'mas', 'asyari', 'sehat', 'trengginas']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['asyari', 'mantap', 'mas', 'asyari', 'sehat', 'trengginas']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17834</v>
+        <v>28602</v>
       </c>
       <c r="C92" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ustad abal penebar kebodohan dan kebencian atas nama agama seperti ini yg justru merusak citra islam</t>
+          <t>menyimak utas menarik dari komisioner kpu mas asyari yg lama ga aktif di twitter</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['ustad', 'abal', 'penebar', 'kebodohan', 'dan', 'kebencian', 'atas', 'nama', 'agama', 'seperti', 'ini', 'yg', 'justru', 'merusak', 'citra', 'islam']</t>
+          <t>['menyimak', 'utas', 'menarik', 'dari', 'komisioner', 'kpu', 'mas', 'asyari', 'yg', 'lama', 'ga', 'aktif', 'di', 'twitter']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['menyimak', 'utas', 'menarik', 'dari', 'komisioner', 'komisi, pemelihan, umum', 'mas', 'asyari', 'yang', 'lama', 'tidak', 'aktif', 'di', 'twitter']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['ustad', 'abal', 'penebar', 'kebodohan', 'kebencian', 'nama', 'agama', 'merusak', 'citra', 'islam']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['ustad', 'abal', 'tebar', 'bodoh', 'benci', 'nama', 'agama', 'rusak', 'citra', 'islam']</t>
+          <t>['menyimak', 'utas', 'menarik', 'komisioner', 'komisi, pemelihan, umum', 'mas', 'asyari', 'aktif', 'twitter']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['simak', 'utas', 'tarik', 'komisioner', 'komisi pemelihan umum', 'mas', 'asyari', 'aktif', 'twitter']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17835</v>
+        <v>28603</v>
       </c>
       <c r="C93" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">mereka tak henti menebar fitnah jahat pada pemerintahan jokowi begitu ditindak tegas mrk koar ngaku dizalimi </t>
+          <t>rt prof azyumardi adalah sosok akademisi dan intelektual muslim terdepan yg sudah selesai dengan dirinya beliau menj</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['mereka', 'tak', 'henti', 'menebar', 'fitnah', 'jahat', 'pada', 'pemerintahan', 'jokowi', 'begitu', 'ditindak', 'tegas', 'mrk', 'koar', 'ngaku', 'dizalimi']</t>
+          <t>['rt', 'prof', 'azyumardi', 'adalah', 'sosok', 'akademisi', 'dan', 'intelektual', 'muslim', 'terdepan', 'yg', 'sudah', 'selesai', 'dengan', 'dirinya', 'beliau', 'menj']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'prof', 'azyumardi', 'adalah', 'sosok', 'akademisi', 'dan', 'intelektual', 'muslim', 'terdepan', 'yang', 'sudah', 'selesai', 'dengan', 'dirinya', 'beliau', 'menj']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['henti', 'menebar', 'fitnah', 'jahat', 'pemerintahan', 'jokowi', 'ditindak', 'mrk', 'koar', 'ngaku', 'dizalimi']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['henti', 'tebar', 'fitnah', 'jahat', 'perintah', 'jokowi', 'tindak', 'mrk', 'koar', 'ngaku', 'zalim']</t>
+          <t>['prof', 'azyumardi', 'sosok', 'akademisi', 'intelektual', 'muslim', 'terdepan', 'selesai', 'beliau', 'menj']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['prof', 'azyumardi', 'sosok', 'akademisi', 'intelektual', 'muslim', 'depan', 'selesai', 'beliau', 'menj']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17836</v>
+        <v>28604</v>
       </c>
       <c r="C94" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt lirik yang bagus dan dinyanyikan dengan sangat baik oleh gus</t>
+          <t>rt dirs ini indonesiaku kamu dan kita semua</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'lirik', 'yang', 'bagus', 'dan', 'dinyanyikan', 'dengan', 'sangat', 'baik', 'oleh', 'gus']</t>
+          <t>['rt', 'dirs', 'ini', 'indonesiaku', 'kamu', 'dan', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'ini', 'indonesiaku', 'kamu', 'dan', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['lirik', 'bagus', 'dinyanyikan', 'gus']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['lirik', 'bagus', 'nyanyi', 'gus']</t>
+          <t>['dirs', 'indonesiaku']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['dirs', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17837</v>
+        <v>28605</v>
       </c>
       <c r="C95" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>twips kalo mau mendalami islam dari aspek ajaran dan perkembangan sejarahnya sila baca karya cak nur ini sangat</t>
+          <t>rt ketika pandemi dihadapi bersama tanpa tersekat akidah di situ tantangan menjadi mudah vaksinasi tokoh agama di istiql</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['twips', 'kalo', 'mau', 'mendalami', 'islam', 'dari', 'aspek', 'ajaran', 'dan', 'perkembangan', 'sejarahnya', 'sila', 'baca', 'karya', 'cak', 'nur', 'ini', 'sangat']</t>
+          <t>['rt', 'ketika', 'pandemi', 'dihadapi', 'bersama', 'tanpa', 'tersekat', 'akidah', 'di', 'situ', 'tantangan', 'menjadi', 'mudah', 'vaksinasi', 'tokoh', 'agama', 'di', 'istiql']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ketika', 'pandemi', 'dihadapi', 'bersama', 'tanpa', 'tersekat', 'akidah', 'di', 'situ', 'tantangan', 'menjadi', 'mudah', 'vaksinasi', 'tokoh', 'agama', 'di', 'istiql']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['twips', 'mendalami', 'islam', 'aspek', 'ajaran', 'perkembangan', 'sejarahnya', 'sila', 'baca', 'karya', 'cak', 'nur']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['twips', 'dalam', 'islam', 'aspek', 'ajar', 'kembang', 'sejarah', 'sila', 'baca', 'karya', 'cak', 'nur']</t>
+          <t>['pandemi', 'dihadapi', 'tersekat', 'akidah', 'situ', 'tantangan', 'mudah', 'vaksinasi', 'tokoh', 'agama', 'istiql']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['pandemi', 'hadap', 'sekat', 'akidah', 'situ', 'tantang', 'mudah', 'vaksinasi', 'tokoh', 'agama', 'istiql']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17838</v>
+        <v>28606</v>
       </c>
       <c r="C96" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt standar ganda mereka berhutang budi dengan medsos bagaimana besarnya peran hoax video yang dipotong saat pilkada dki membantu</t>
+          <t>waduh haha</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'standar', 'ganda', 'mereka', 'berhutang', 'budi', 'dengan', 'medsos', 'bagaimana', 'besarnya', 'peran', 'hoax', 'video', 'yang', 'dipotong', 'saat', 'pilkada', 'dki', 'membantu']</t>
+          <t>['waduh', 'haha']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['waduh', 'haha']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['standar', 'ganda', 'berhutang', 'budi', 'medsos', 'besarnya', 'peran', 'hoax', 'video', 'dipotong', 'pilkada', 'dki', 'membantu']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['standar', 'ganda', 'hutang', 'budi', 'medsos', 'besar', 'peran', 'hoax', 'video', 'potong', 'pilkada', 'dki', 'bantu']</t>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['haha']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17839</v>
+        <v>28607</v>
       </c>
       <c r="C97" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt as kalo hanya krn ikut foto bareng jokowi langsung dicap buzzerp trus yg foto salaman sambil mundhuk gini namanya apa ya co</t>
+          <t>lewat dosa kita menjadi dewasa kata subagio sastrowardoyo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'as', 'kalo', 'hanya', 'krn', 'ikut', 'foto', 'bareng', 'jokowi', 'langsung', 'dicap', 'buzzerp', 'trus', 'yg', 'foto', 'salaman', 'sambil', 'mundhuk', 'gini', 'namanya', 'apa', 'ya', 'co']</t>
+          <t>['lewat', 'dosa', 'kita', 'menjadi', 'dewasa', 'kata', 'subagio', 'sastrowardoyo']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['lewat', 'dosa', 'kita', 'menjadi', 'dewasa', 'kata', 'subagio', 'sastrowardoyo']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['as', 'foto', 'bareng', 'jokowi', 'langsung', 'dicap', 'buzzerp', 'trus', 'foto', 'salaman', 'mundhuk', 'gini', 'namanya', 'co']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['as', 'foto', 'bareng', 'jokowi', 'langsung', 'cap', 'buzzerp', 'trus', 'foto', 'salam', 'mundhuk', 'gin', 'nama', 'co']</t>
+          <t>['dosa', 'dewasa', 'subagio', 'sastrowardoyo']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['dosa', 'dewasa', 'subagio', 'sastrowardoyo']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17840</v>
+        <v>28608</v>
       </c>
       <c r="C98" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt ekosistem kemajuan indonesia adalah jika berkembang di tengahtengah</t>
+          <t>tadinya saya bersikap demikian bukan hanya annie hall filmnya yg yg lain banyak yg jenius dan orisi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'ekosistem', 'kemajuan', 'indonesia', 'adalah', 'jika', 'berkembang', 'di', 'tengahtengah']</t>
+          <t>['tadinya', 'saya', 'bersikap', 'demikian', 'bukan', 'hanya', 'annie', 'hall', 'filmnya', 'yg', 'yg', 'lain', 'banyak', 'yg', 'jenius', 'dan', 'orisi']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tadinya', 'saya', 'bersikap', 'demikian', 'bukan', 'hanya', 'annie', 'hall', 'filmnya', 'yang', 'yang', 'lain', 'banyak', 'yang', 'jenius', 'dan', 'orisi']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['ekosistem', 'kemajuan', 'indonesia', 'berkembang', 'tengahtengah']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['ekosistem', 'maju', 'indonesia', 'kembang', 'tengahtengah']</t>
+          <t>['bersikap', 'annie', 'hall', 'filmnya', 'jenius', 'orisi']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['sikap', 'annie', 'hall', 'film', 'jenius', 'orisi']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17841</v>
+        <v>28609</v>
       </c>
       <c r="C99" t="n">
-        <v>219</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>oke aja mas punya penilaian begitu kan sah aja kita punya penilaian berbeda satu hal yg</t>
-        </is>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['oke', 'aja', 'mas', 'punya', 'penilaian', 'begitu', 'kan', 'sah', 'aja', 'kita', 'punya', 'penilaian', 'berbeda', 'satu', 'hal', 'yg']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['oke', 'mas', 'penilaian', 'sah', 'penilaian', 'berbeda']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['oke', 'mas', 'nilai', 'sah', 'nilai', 'beda']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17842</v>
+        <v>28610</v>
       </c>
       <c r="C100" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>saya ngetwit begini krn saya tau dan dapet info dari orang dekatnya pak din di ukp</t>
+          <t>ga hanya otu di episode kedua ini ada footage testimoni dylan farrow saat masih bocah bbrp saat stl</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['saya', 'ngetwit', 'begini', 'krn', 'saya', 'tau', 'dan', 'dapet', 'info', 'dari', 'orang', 'dekatnya', 'pak', 'din', 'di', 'ukp']</t>
+          <t>['ga', 'hanya', 'otu', 'di', 'episode', 'kedua', 'ini', 'ada', 'footage', 'testimoni', 'dylan', 'farrow', 'saat', 'masih', 'bocah', 'bbrp', 'saat', 'stl']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tidak', 'hanya', 'otu', 'di', 'episode', 'kedua', 'ini', 'ada', 'footage', 'testimoni', 'dilan', 'farrow', 'saat', 'masih', 'bocah', 'beberapa', 'saat', 'stl']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['ngetwit', 'dapet', 'info', 'orang', 'dekatnya', 'din', 'ukp']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ngetwit', 'dapet', 'info', 'orang', 'dekat', 'din', 'ukp']</t>
+          <t>['otu', 'episode', 'footage', 'testimoni', 'dilan', 'farrow', 'bocah', 'stl']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['otu', 'episode', 'footage', 'testimoni', 'dil', 'farrow', 'bocah', 'stl']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17843</v>
+        <v>28611</v>
       </c>
       <c r="C101" t="n">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt anakkampung mimbar kritik yg tlh disiapkan jokowi hrs kt manfaatkan utk memperkuat solidaritas kebangsaan dn mendorong peningkatan</t>
+          <t>sbg mantan penggemar film woody allen saya betul shocked sehabis nonton episode allen  farrow di hbo wood</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'anakkampung', 'mimbar', 'kritik', 'yg', 'tlh', 'disiapkan', 'jokowi', 'hrs', 'kt', 'manfaatkan', 'utk', 'memperkuat', 'solidaritas', 'kebangsaan', 'dn', 'mendorong', 'peningkatan']</t>
+          <t>['sbg', 'mantan', 'penggemar', 'film', 'woody', 'allen', 'saya', 'betul', 'shocked', 'sehabis', 'nonton', 'episode', 'allen', 'farrow', 'di', 'hbo', 'wood']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['sebagai', 'mantan', 'penggemar', 'film', 'woody', 'allen', 'saya', 'betul', 'shocked', 'sehabis', 'menonton', 'episode', 'allen', 'farrow', 'di', 'hbo', 'wood']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['anakkampung', 'mimbar', 'kritik', 'tlh', 'disiapkan', 'jokowi', 'hrs', 'kt', 'manfaatkan', 'memperkuat', 'solidaritas', 'kebangsaan', 'dn', 'mendorong', 'peningkatan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['anakkampung', 'mimbar', 'kritik', 'tlh', 'siap', 'jokowi', 'hrs', 'kt', 'manfaat', 'kuat', 'solidaritas', 'bangsa', 'dn', 'dorong', 'tingkat']</t>
+          <t>['mantan', 'penggemar', 'film', 'woody', 'allen', 'shocked', 'sehabis', 'menonton', 'episode', 'allen', 'farrow', 'hbo', 'wood']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['mantan', 'gemar', 'film', 'woody', 'allen', 'shocked', 'habis', 'tonton', 'episode', 'allen', 'farrow', 'hbo', 'wood']</t>
         </is>
       </c>
     </row>
